--- a/Team102.2.DataExtractionCode.v1.1/DataSprint.xlsx
+++ b/Team102.2.DataExtractionCode.v1.1/DataSprint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iliasasskali/Desktop/Project Management/PMTeam102-2/Team102.2.DataExtractionCode.v1.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F4390E-3123-F94B-9E43-C9AE7BEC7D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC716F54-CB09-444C-94F4-0B314095B403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="84">
   <si>
     <t>Municipi</t>
   </si>
@@ -200,121 +200,91 @@
     <t>Índex de recanvi poblacional</t>
   </si>
   <si>
-    <t>Població per lloc de naixement </t>
-  </si>
-  <si>
-    <t>Catalunya (2020)</t>
-  </si>
-  <si>
-    <t>Resta d'Espanya (2020)</t>
-  </si>
-  <si>
-    <t>Estranger (2020)</t>
-  </si>
-  <si>
-    <t>Població per nacionalitat </t>
-  </si>
-  <si>
-    <t>Espanyola (2020)</t>
-  </si>
-  <si>
-    <t>Estrangera (2020)</t>
-  </si>
-  <si>
-    <t>Mobilitat obligada per raó d'estudis no universitaris </t>
-  </si>
-  <si>
-    <t>Alumnes residents (Curs 2019/20)</t>
-  </si>
-  <si>
-    <t>Alumnes residents que estudien al mateix municipi (Curs 2019/20) (%)</t>
-  </si>
-  <si>
-    <t>Població per relació amb l'activitat econòmica </t>
-  </si>
-  <si>
-    <t>Població ocupada (2011)</t>
-  </si>
-  <si>
-    <t>Població desocupada (2011)</t>
-  </si>
-  <si>
-    <t>Població activa (2011)</t>
-  </si>
-  <si>
-    <t>Població inactiva (2011)</t>
-  </si>
-  <si>
-    <t>Atur registrat</t>
-  </si>
-  <si>
-    <t>Mitjanes anuals (2020)</t>
-  </si>
-  <si>
-    <t>Habitatges familiars</t>
-  </si>
-  <si>
-    <t>Per tipus - Principals (2011)</t>
-  </si>
-  <si>
-    <t>Per tipus - Buits (2011)</t>
-  </si>
-  <si>
-    <t>Habitatges familiars </t>
-  </si>
-  <si>
-    <t>Total (2011)</t>
-  </si>
-  <si>
-    <t>Habitatges familiars principals</t>
-  </si>
-  <si>
-    <t>Per règim de tinença - De lloguer (2011)</t>
-  </si>
-  <si>
-    <t>Per superfície útil - De 61 a 90 m² (2011)</t>
-  </si>
-  <si>
-    <t>Per superfície útil - De 91 a 120 m² (2011)</t>
-  </si>
-  <si>
-    <t>Índex socioeconòmic territorial (IST)</t>
-  </si>
-  <si>
-    <t>Índex Catalunya=100 - Índex socioeconòmic territorial (2018)</t>
-  </si>
-  <si>
-    <t>Llars</t>
-  </si>
-  <si>
-    <t>Per grandària de la llar - Una persona (2011)</t>
-  </si>
-  <si>
-    <t>Per grandària de la llar - Dues persones (2011)</t>
-  </si>
-  <si>
-    <t>Per grandària de la llar - Tres persones (2011)</t>
-  </si>
-  <si>
     <t>Per grandària de la llar - Quatre persones i més (2011)</t>
   </si>
   <si>
-    <t>Per tipus de nucli - Parella sense fills (2011)</t>
+    <t>Habitants per Habitatge</t>
   </si>
   <si>
-    <t>Per tipus de nucli - Parella amb fills (2011)</t>
+    <t>Població per lloc de naixement - Catalunya (2020)</t>
   </si>
   <si>
-    <t>Per tipus de nucli - Una persona (2011)</t>
+    <t>Població per lloc de naixement - Resta d'Espanya (2020)</t>
   </si>
   <si>
-    <t>Per tipus de nucli - Pare o mare amb fills (2011)</t>
+    <t>Població per lloc de naixement - Estranger (2020)</t>
   </si>
   <si>
-    <t>Per règim de tinença - De propietat (2011)</t>
+    <t>Població per nacionalitat - Espanyola (2020)</t>
   </si>
   <si>
-    <t>Habitants per Habitatge</t>
+    <t>Població per nacionalitat - Estrangera (2020)</t>
+  </si>
+  <si>
+    <t>Mobilitat obligada per raó d'estudis no universitaris - Alumnes residents (Curs 2019/20)</t>
+  </si>
+  <si>
+    <t>Mobilitat obligada per raó d'estudis no universitaris - Alumnes residents que estudien al mateix municipi (Curs 2019/20) (%)</t>
+  </si>
+  <si>
+    <t>Població per relació amb l'activitat econòmica - Població ocupada (2011)</t>
+  </si>
+  <si>
+    <t>Població per relació amb l'activitat econòmica - Població desocupada (2011)</t>
+  </si>
+  <si>
+    <t>Població per relació amb l'activitat econòmica - Població activa (2011)</t>
+  </si>
+  <si>
+    <t>Població per relació amb l'activitat econòmica - Població inactiva (2011)</t>
+  </si>
+  <si>
+    <t>Atur registrat - Mitjanes anuals (2020)</t>
+  </si>
+  <si>
+    <t>Habitatges familiars - Per tipus - Principals (2011)</t>
+  </si>
+  <si>
+    <t>Habitatges familiars - Per tipus - Buits (2011)</t>
+  </si>
+  <si>
+    <t>Habitatges familiars - Total (2011)</t>
+  </si>
+  <si>
+    <t>Habitatges familiars principals - Per règim de tinença - De lloguer (2011)</t>
+  </si>
+  <si>
+    <t>Habitatges familiars principals - Per superfície útil - De 61 a 90 m² (2011)</t>
+  </si>
+  <si>
+    <t>Habitatges familiars principals - Per superfície útil - De 91 a 120 m² (2011)</t>
+  </si>
+  <si>
+    <t>Índex socioeconòmic territorial (IST) - Índex Catalunya=100 - Índex socioeconòmic territorial (2018)</t>
+  </si>
+  <si>
+    <t>Llars - Per grandària de la llar - Una persona (2011)</t>
+  </si>
+  <si>
+    <t>Llars - Per grandària de la llar - Dues persones (2011)</t>
+  </si>
+  <si>
+    <t>Llars - Per grandària de la llar - Tres persones (2011)</t>
+  </si>
+  <si>
+    <t>Llars - Per tipus de nucli - Parella sense fills (2011)</t>
+  </si>
+  <si>
+    <t>Llars - Per tipus de nucli - Parella amb fills (2011)</t>
+  </si>
+  <si>
+    <t>Llars - Per tipus de nucli - Una persona (2011)</t>
+  </si>
+  <si>
+    <t>Llars - Per tipus de nucli - Pare o mare amb fills (2011)</t>
+  </si>
+  <si>
+    <t>Habitatges familiars principals - Per règim de tinença - De propietat (2011)</t>
   </si>
 </sst>
 </file>
@@ -331,6 +301,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -342,11 +313,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -434,10 +407,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5408,7 +5383,7 @@
       <c r="A175" s="3">
         <v>43171</v>
       </c>
-      <c r="B175" s="13" t="s">
+      <c r="B175" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C175" s="3">
@@ -5428,7 +5403,7 @@
       <c r="A176" s="3">
         <v>43171</v>
       </c>
-      <c r="B176" s="13" t="s">
+      <c r="B176" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C176" s="3">
@@ -5448,7 +5423,7 @@
       <c r="A177" s="3">
         <v>43171</v>
       </c>
-      <c r="B177" s="13" t="s">
+      <c r="B177" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C177" s="3">
@@ -5468,7 +5443,7 @@
       <c r="A178" s="3">
         <v>43171</v>
       </c>
-      <c r="B178" s="13" t="s">
+      <c r="B178" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C178" s="3">
@@ -5488,7 +5463,7 @@
       <c r="A179" s="3">
         <v>43171</v>
       </c>
-      <c r="B179" s="13" t="s">
+      <c r="B179" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C179" s="3">
@@ -5508,7 +5483,7 @@
       <c r="A180" s="3">
         <v>43171</v>
       </c>
-      <c r="B180" s="13" t="s">
+      <c r="B180" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C180" s="3">
@@ -5528,7 +5503,7 @@
       <c r="A181" s="3">
         <v>43171</v>
       </c>
-      <c r="B181" s="13" t="s">
+      <c r="B181" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C181" s="3">
@@ -5548,7 +5523,7 @@
       <c r="A182" s="3">
         <v>43171</v>
       </c>
-      <c r="B182" s="13" t="s">
+      <c r="B182" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C182" s="3">
@@ -5568,7 +5543,7 @@
       <c r="A183" s="3">
         <v>43171</v>
       </c>
-      <c r="B183" s="13" t="s">
+      <c r="B183" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C183" s="3">
@@ -5588,7 +5563,7 @@
       <c r="A184" s="3">
         <v>43171</v>
       </c>
-      <c r="B184" s="13" t="s">
+      <c r="B184" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C184" s="3">
@@ -6101,7 +6076,7 @@
       <c r="B8" s="3">
         <v>431009</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="3">
@@ -6405,7 +6380,7 @@
       <c r="B16" s="3">
         <v>431444</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="3">
@@ -6595,7 +6570,7 @@
       <c r="B21" s="3">
         <v>431711</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="3">
@@ -6671,7 +6646,7 @@
       <c r="B23" s="3">
         <v>439076</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="3">
@@ -6712,614 +6687,623 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF46"/>
+  <dimension ref="A1:AF45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="32.1640625" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.5" customWidth="1"/>
-    <col min="8" max="8" width="23.5" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
-    <col min="28" max="28" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="98.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="60.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="56" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="57" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="79.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="59" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z1" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="V1" s="12" t="s">
+      <c r="AA1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="AD1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AF1" s="15" t="s">
-        <v>93</v>
+      <c r="AF1" s="14" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF2" s="15"/>
+      <c r="A2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="12">
+        <v>430120</v>
+      </c>
+      <c r="C2" s="12">
+        <v>3657</v>
+      </c>
+      <c r="D2" s="12">
+        <v>872</v>
+      </c>
+      <c r="E2" s="12">
+        <v>778</v>
+      </c>
+      <c r="F2" s="12">
+        <v>5307</v>
+      </c>
+      <c r="G2" s="12">
+        <v>4658</v>
+      </c>
+      <c r="H2" s="12">
+        <v>649</v>
+      </c>
+      <c r="I2" s="12">
+        <v>960</v>
+      </c>
+      <c r="J2" s="12">
+        <v>79.7</v>
+      </c>
+      <c r="K2" s="12">
+        <v>2090</v>
+      </c>
+      <c r="L2" s="12">
+        <v>585</v>
+      </c>
+      <c r="M2" s="12">
+        <v>2675</v>
+      </c>
+      <c r="N2" s="12">
+        <v>2175</v>
+      </c>
+      <c r="O2" s="12">
+        <v>255.2</v>
+      </c>
+      <c r="P2" s="12">
+        <v>1861</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>593</v>
+      </c>
+      <c r="R2" s="12">
+        <v>4585</v>
+      </c>
+      <c r="S2" s="12">
+        <v>340</v>
+      </c>
+      <c r="T2" s="12">
+        <v>476</v>
+      </c>
+      <c r="U2" s="12">
+        <v>517</v>
+      </c>
+      <c r="V2" s="12">
+        <v>109.3</v>
+      </c>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6">
+        <v>1.1599999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="13">
-        <v>430120</v>
-      </c>
-      <c r="C3" s="13">
-        <v>3657</v>
-      </c>
-      <c r="D3" s="13">
-        <v>872</v>
-      </c>
-      <c r="E3" s="13">
-        <v>778</v>
-      </c>
-      <c r="F3" s="13">
-        <v>5307</v>
-      </c>
-      <c r="G3" s="13">
-        <v>4658</v>
-      </c>
-      <c r="H3" s="13">
-        <v>649</v>
-      </c>
-      <c r="I3" s="13">
-        <v>960</v>
-      </c>
-      <c r="J3" s="13">
-        <v>79.7</v>
-      </c>
-      <c r="K3" s="13">
-        <v>2090</v>
-      </c>
-      <c r="L3" s="13">
-        <v>585</v>
-      </c>
-      <c r="M3" s="13">
-        <v>2675</v>
-      </c>
-      <c r="N3" s="13">
-        <v>2175</v>
-      </c>
-      <c r="O3" s="13">
-        <v>255.2</v>
-      </c>
-      <c r="P3" s="13">
-        <v>1861</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>593</v>
-      </c>
-      <c r="R3" s="13">
-        <v>4585</v>
-      </c>
-      <c r="S3" s="13">
-        <v>340</v>
-      </c>
-      <c r="T3" s="13">
-        <v>476</v>
-      </c>
-      <c r="U3" s="13">
-        <v>517</v>
-      </c>
-      <c r="V3" s="13">
-        <v>109.3</v>
-      </c>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12">
+        <v>439076</v>
+      </c>
+      <c r="C3" s="12">
+        <v>4099</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1298</v>
+      </c>
+      <c r="E3" s="12">
+        <v>559</v>
+      </c>
+      <c r="F3" s="12">
+        <v>5956</v>
+      </c>
+      <c r="G3" s="12">
+        <v>5529</v>
+      </c>
+      <c r="H3" s="12">
+        <v>427</v>
+      </c>
+      <c r="I3" s="12">
+        <v>940</v>
+      </c>
+      <c r="J3" s="12">
+        <v>78.2</v>
+      </c>
+      <c r="K3" s="12">
+        <v>2047</v>
+      </c>
+      <c r="L3" s="12">
+        <v>959</v>
+      </c>
+      <c r="M3" s="12">
+        <v>3006</v>
+      </c>
+      <c r="N3" s="12">
+        <v>2703</v>
+      </c>
+      <c r="O3" s="12">
+        <v>381.7</v>
+      </c>
+      <c r="P3" s="12">
+        <v>2283</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>29</v>
+      </c>
+      <c r="R3" s="12">
+        <v>2318</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="12">
+        <v>99.9</v>
+      </c>
+      <c r="W3" s="12">
+        <v>311</v>
+      </c>
+      <c r="X3" s="12">
+        <v>1071</v>
+      </c>
+      <c r="Y3" s="12">
+        <v>462</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>439</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>893</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>825</v>
+      </c>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6">
-        <v>1.1599999999999999</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="13">
-        <v>439076</v>
-      </c>
-      <c r="C4" s="13">
-        <v>4099</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1298</v>
-      </c>
-      <c r="E4" s="13">
-        <v>559</v>
-      </c>
-      <c r="F4" s="13">
-        <v>5956</v>
-      </c>
-      <c r="G4" s="13">
-        <v>5529</v>
-      </c>
-      <c r="H4" s="13">
-        <v>427</v>
-      </c>
-      <c r="I4" s="13">
-        <v>940</v>
-      </c>
-      <c r="J4" s="13">
-        <v>78.2</v>
-      </c>
-      <c r="K4" s="13">
-        <v>2047</v>
-      </c>
-      <c r="L4" s="13">
-        <v>959</v>
-      </c>
-      <c r="M4" s="13">
-        <v>3006</v>
-      </c>
-      <c r="N4" s="13">
-        <v>2703</v>
-      </c>
-      <c r="O4" s="13">
-        <v>381.7</v>
-      </c>
-      <c r="P4" s="13">
-        <v>2283</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>29</v>
-      </c>
-      <c r="R4" s="13">
-        <v>2318</v>
+        <v>19</v>
+      </c>
+      <c r="B4" s="12">
+        <v>430430</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3295</v>
+      </c>
+      <c r="D4" s="12">
+        <v>784</v>
+      </c>
+      <c r="E4" s="12">
+        <v>478</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4557</v>
+      </c>
+      <c r="G4" s="12">
+        <v>4212</v>
+      </c>
+      <c r="H4" s="12">
+        <v>345</v>
+      </c>
+      <c r="I4" s="12">
+        <v>820</v>
+      </c>
+      <c r="J4" s="12">
+        <v>46.3</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1912</v>
+      </c>
+      <c r="L4" s="12">
+        <v>529</v>
+      </c>
+      <c r="M4" s="12">
+        <v>2441</v>
+      </c>
+      <c r="N4" s="12">
+        <v>1724</v>
+      </c>
+      <c r="O4" s="12">
+        <v>213.9</v>
+      </c>
+      <c r="P4" s="12">
+        <v>1531</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>106</v>
+      </c>
+      <c r="R4" s="12">
+        <v>2433</v>
       </c>
       <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="13">
-        <v>99.9</v>
-      </c>
-      <c r="W4" s="13">
-        <v>311</v>
-      </c>
-      <c r="X4" s="13">
-        <v>1071</v>
-      </c>
-      <c r="Y4" s="13">
-        <v>462</v>
-      </c>
-      <c r="Z4" s="13">
-        <v>439</v>
-      </c>
-      <c r="AA4" s="13">
-        <v>893</v>
-      </c>
-      <c r="AB4" s="13">
-        <v>825</v>
-      </c>
+      <c r="T4" s="12">
+        <v>286</v>
+      </c>
+      <c r="U4" s="12">
+        <v>484</v>
+      </c>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="6"/>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6">
-        <v>2.57</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="13">
-        <v>430430</v>
-      </c>
-      <c r="C5" s="13">
-        <v>3295</v>
-      </c>
-      <c r="D5" s="13">
-        <v>784</v>
-      </c>
-      <c r="E5" s="13">
-        <v>478</v>
-      </c>
-      <c r="F5" s="13">
-        <v>4557</v>
-      </c>
-      <c r="G5" s="13">
-        <v>4212</v>
-      </c>
-      <c r="H5" s="13">
-        <v>345</v>
-      </c>
-      <c r="I5" s="13">
-        <v>820</v>
-      </c>
-      <c r="J5" s="13">
-        <v>46.3</v>
-      </c>
-      <c r="K5" s="13">
-        <v>1912</v>
-      </c>
-      <c r="L5" s="13">
-        <v>529</v>
-      </c>
-      <c r="M5" s="13">
-        <v>2441</v>
-      </c>
-      <c r="N5" s="13">
-        <v>1724</v>
-      </c>
-      <c r="O5" s="13">
-        <v>213.9</v>
-      </c>
-      <c r="P5" s="13">
-        <v>1531</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>106</v>
-      </c>
-      <c r="R5" s="13">
-        <v>2433</v>
-      </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="13">
-        <v>286</v>
-      </c>
-      <c r="U5" s="13">
-        <v>484</v>
-      </c>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
+      <c r="A5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="12">
+        <v>430477</v>
+      </c>
+      <c r="C5" s="12">
+        <v>4012</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1240</v>
+      </c>
+      <c r="E5" s="12">
+        <v>1413</v>
+      </c>
+      <c r="F5" s="12">
+        <v>6665</v>
+      </c>
+      <c r="G5" s="12">
+        <v>5388</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1277</v>
+      </c>
+      <c r="I5" s="12">
+        <v>1320</v>
+      </c>
+      <c r="J5" s="12">
+        <v>69.3</v>
+      </c>
+      <c r="K5" s="12">
+        <v>2444</v>
+      </c>
+      <c r="L5" s="12">
+        <v>1124</v>
+      </c>
+      <c r="M5" s="12">
+        <v>3568</v>
+      </c>
+      <c r="N5" s="12">
+        <v>3146</v>
+      </c>
+      <c r="O5" s="12">
+        <v>671.9</v>
+      </c>
+      <c r="P5" s="12">
+        <v>2502</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>154</v>
+      </c>
+      <c r="R5" s="12">
+        <v>2673</v>
+      </c>
+      <c r="S5" s="12">
+        <v>622</v>
+      </c>
+      <c r="T5" s="12">
+        <v>1259</v>
+      </c>
+      <c r="U5" s="12">
+        <v>770</v>
+      </c>
+      <c r="V5" s="12">
+        <v>78.3</v>
+      </c>
+      <c r="W5" s="12">
+        <v>420</v>
+      </c>
+      <c r="X5" s="12">
+        <v>865</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>560</v>
+      </c>
+      <c r="Z5" s="12">
+        <v>657</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>778</v>
+      </c>
+      <c r="AB5" s="12">
+        <v>1095</v>
+      </c>
+      <c r="AC5" s="12">
+        <v>420</v>
+      </c>
+      <c r="AD5" s="12">
+        <v>111</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>1736</v>
+      </c>
       <c r="AF5" s="6">
-        <v>1.87</v>
+        <v>2.4900000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="13">
-        <v>430477</v>
-      </c>
-      <c r="C6" s="13">
-        <v>4012</v>
-      </c>
-      <c r="D6" s="13">
-        <v>1240</v>
-      </c>
-      <c r="E6" s="13">
-        <v>1413</v>
-      </c>
-      <c r="F6" s="13">
-        <v>6665</v>
-      </c>
-      <c r="G6" s="13">
-        <v>5388</v>
-      </c>
-      <c r="H6" s="13">
-        <v>1277</v>
-      </c>
-      <c r="I6" s="13">
-        <v>1320</v>
-      </c>
-      <c r="J6" s="13">
-        <v>69.3</v>
-      </c>
-      <c r="K6" s="13">
-        <v>2444</v>
-      </c>
-      <c r="L6" s="13">
-        <v>1124</v>
-      </c>
-      <c r="M6" s="13">
-        <v>3568</v>
-      </c>
-      <c r="N6" s="13">
-        <v>3146</v>
-      </c>
-      <c r="O6" s="13">
-        <v>671.9</v>
-      </c>
-      <c r="P6" s="13">
-        <v>2502</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>154</v>
-      </c>
-      <c r="R6" s="13">
-        <v>2673</v>
-      </c>
-      <c r="S6" s="13">
-        <v>622</v>
-      </c>
-      <c r="T6" s="13">
-        <v>1259</v>
-      </c>
-      <c r="U6" s="13">
-        <v>770</v>
-      </c>
-      <c r="V6" s="13">
-        <v>78.3</v>
-      </c>
-      <c r="W6" s="13">
-        <v>420</v>
-      </c>
-      <c r="X6" s="13">
-        <v>865</v>
-      </c>
-      <c r="Y6" s="13">
-        <v>560</v>
-      </c>
-      <c r="Z6" s="13">
-        <v>657</v>
-      </c>
-      <c r="AA6" s="13">
-        <v>778</v>
-      </c>
-      <c r="AB6" s="13">
-        <v>1095</v>
-      </c>
-      <c r="AC6" s="13">
-        <v>420</v>
-      </c>
-      <c r="AD6" s="13">
-        <v>111</v>
-      </c>
-      <c r="AE6" s="13">
-        <v>1736</v>
-      </c>
+      <c r="A6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="12">
+        <v>430509</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2351</v>
+      </c>
+      <c r="D6" s="12">
+        <v>773</v>
+      </c>
+      <c r="E6" s="12">
+        <v>634</v>
+      </c>
+      <c r="F6" s="12">
+        <v>3758</v>
+      </c>
+      <c r="G6" s="12">
+        <v>3208</v>
+      </c>
+      <c r="H6" s="12">
+        <v>550</v>
+      </c>
+      <c r="I6" s="12">
+        <v>555</v>
+      </c>
+      <c r="J6" s="12">
+        <v>35.1</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1347</v>
+      </c>
+      <c r="L6" s="12">
+        <v>502</v>
+      </c>
+      <c r="M6" s="12">
+        <v>1849</v>
+      </c>
+      <c r="N6" s="12">
+        <v>1478</v>
+      </c>
+      <c r="O6" s="12">
+        <v>281.3</v>
+      </c>
+      <c r="P6" s="12">
+        <v>1409</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>366</v>
+      </c>
+      <c r="R6" s="12">
+        <v>4024</v>
+      </c>
+      <c r="S6" s="12">
+        <v>223</v>
+      </c>
+      <c r="T6" s="6"/>
+      <c r="U6" s="12">
+        <v>494</v>
+      </c>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
       <c r="AF6" s="6">
-        <v>2.4900000000000002</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="13">
-        <v>430509</v>
-      </c>
-      <c r="C7" s="13">
-        <v>2351</v>
-      </c>
-      <c r="D7" s="13">
-        <v>773</v>
-      </c>
-      <c r="E7" s="13">
-        <v>634</v>
-      </c>
-      <c r="F7" s="13">
-        <v>3758</v>
-      </c>
-      <c r="G7" s="13">
-        <v>3208</v>
-      </c>
-      <c r="H7" s="13">
-        <v>550</v>
-      </c>
-      <c r="I7" s="13">
-        <v>555</v>
-      </c>
-      <c r="J7" s="13">
-        <v>35.1</v>
-      </c>
-      <c r="K7" s="13">
-        <v>1347</v>
-      </c>
-      <c r="L7" s="13">
-        <v>502</v>
-      </c>
-      <c r="M7" s="13">
-        <v>1849</v>
-      </c>
-      <c r="N7" s="13">
-        <v>1478</v>
-      </c>
-      <c r="O7" s="13">
-        <v>281.3</v>
-      </c>
-      <c r="P7" s="13">
-        <v>1409</v>
-      </c>
-      <c r="Q7" s="13">
-        <v>366</v>
-      </c>
-      <c r="R7" s="13">
-        <v>4024</v>
-      </c>
-      <c r="S7" s="13">
-        <v>223</v>
-      </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="13">
-        <v>494</v>
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12">
+        <v>430957</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2626</v>
+      </c>
+      <c r="D7" s="12">
+        <v>581</v>
+      </c>
+      <c r="E7" s="12">
+        <v>535</v>
+      </c>
+      <c r="F7" s="12">
+        <v>3742</v>
+      </c>
+      <c r="G7" s="12">
+        <v>3267</v>
+      </c>
+      <c r="H7" s="12">
+        <v>475</v>
+      </c>
+      <c r="I7" s="12">
+        <v>760</v>
+      </c>
+      <c r="J7" s="12">
+        <v>75.7</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1525</v>
+      </c>
+      <c r="L7" s="12">
+        <v>382</v>
+      </c>
+      <c r="M7" s="12">
+        <v>1907</v>
+      </c>
+      <c r="N7" s="12">
+        <v>1579</v>
+      </c>
+      <c r="O7" s="12">
+        <v>238.8</v>
+      </c>
+      <c r="P7" s="12">
+        <v>1377</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="12">
+        <v>1465</v>
+      </c>
+      <c r="S7" s="12">
+        <v>123</v>
+      </c>
+      <c r="T7" s="12">
+        <v>541</v>
+      </c>
+      <c r="U7" s="12">
+        <v>468</v>
       </c>
       <c r="V7" s="6"/>
       <c r="W7" s="6"/>
@@ -7330,73 +7314,57 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
+      <c r="AE7" s="12">
+        <v>1107</v>
+      </c>
       <c r="AF7" s="6">
-        <v>0.93</v>
+        <v>2.5499999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="13">
-        <v>430957</v>
-      </c>
-      <c r="C8" s="13">
-        <v>2626</v>
-      </c>
-      <c r="D8" s="13">
-        <v>581</v>
-      </c>
-      <c r="E8" s="13">
-        <v>535</v>
-      </c>
-      <c r="F8" s="13">
-        <v>3742</v>
-      </c>
-      <c r="G8" s="13">
-        <v>3267</v>
-      </c>
-      <c r="H8" s="13">
-        <v>475</v>
-      </c>
-      <c r="I8" s="13">
-        <v>760</v>
-      </c>
-      <c r="J8" s="13">
-        <v>75.7</v>
-      </c>
-      <c r="K8" s="13">
-        <v>1525</v>
-      </c>
-      <c r="L8" s="13">
-        <v>382</v>
-      </c>
-      <c r="M8" s="13">
-        <v>1907</v>
-      </c>
-      <c r="N8" s="13">
-        <v>1579</v>
-      </c>
-      <c r="O8" s="13">
-        <v>238.8</v>
-      </c>
-      <c r="P8" s="13">
-        <v>1377</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B8" s="12">
+        <v>430976</v>
+      </c>
+      <c r="C8" s="12">
+        <v>466</v>
+      </c>
+      <c r="D8" s="12">
+        <v>61</v>
+      </c>
+      <c r="E8" s="12">
+        <v>73</v>
+      </c>
+      <c r="F8" s="12">
+        <v>600</v>
+      </c>
+      <c r="G8" s="12">
+        <v>545</v>
+      </c>
+      <c r="H8" s="12">
+        <v>55</v>
+      </c>
+      <c r="I8" s="12">
+        <v>125</v>
+      </c>
+      <c r="J8" s="12">
+        <v>48</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="12">
+        <v>35.6</v>
+      </c>
+      <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="13">
-        <v>1465</v>
-      </c>
-      <c r="S8" s="13">
-        <v>123</v>
-      </c>
-      <c r="T8" s="13">
-        <v>541</v>
-      </c>
-      <c r="U8" s="13">
-        <v>468</v>
-      </c>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
       <c r="X8" s="6"/>
@@ -7406,57 +7374,67 @@
       <c r="AB8" s="6"/>
       <c r="AC8" s="6"/>
       <c r="AD8" s="6"/>
-      <c r="AE8" s="13">
-        <v>1107</v>
-      </c>
-      <c r="AF8" s="6">
-        <v>2.5499999999999998</v>
-      </c>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
     </row>
     <row r="9" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="13">
-        <v>430976</v>
-      </c>
-      <c r="C9" s="13">
-        <v>466</v>
-      </c>
-      <c r="D9" s="13">
-        <v>61</v>
-      </c>
-      <c r="E9" s="13">
-        <v>73</v>
-      </c>
-      <c r="F9" s="13">
-        <v>600</v>
-      </c>
-      <c r="G9" s="13">
-        <v>545</v>
-      </c>
-      <c r="H9" s="13">
-        <v>55</v>
-      </c>
-      <c r="I9" s="13">
-        <v>125</v>
-      </c>
-      <c r="J9" s="13">
-        <v>48</v>
-      </c>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="13">
-        <v>35.6</v>
-      </c>
-      <c r="P9" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="12">
+        <v>431009</v>
+      </c>
+      <c r="C9" s="12">
+        <v>3767</v>
+      </c>
+      <c r="D9" s="12">
+        <v>824</v>
+      </c>
+      <c r="E9" s="12">
+        <v>259</v>
+      </c>
+      <c r="F9" s="12">
+        <v>4850</v>
+      </c>
+      <c r="G9" s="12">
+        <v>4712</v>
+      </c>
+      <c r="H9" s="12">
+        <v>138</v>
+      </c>
+      <c r="I9" s="12">
+        <v>1125</v>
+      </c>
+      <c r="J9" s="12">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1992</v>
+      </c>
+      <c r="L9" s="12">
+        <v>475</v>
+      </c>
+      <c r="M9" s="12">
+        <v>2468</v>
+      </c>
+      <c r="N9" s="12">
+        <v>1894</v>
+      </c>
+      <c r="O9" s="12">
+        <v>207</v>
+      </c>
+      <c r="P9" s="12">
+        <v>1516</v>
+      </c>
       <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
+      <c r="R9" s="12">
+        <v>1786</v>
+      </c>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
+      <c r="U9" s="12">
+        <v>462</v>
+      </c>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
       <c r="X9" s="6"/>
@@ -7467,65 +7445,71 @@
       <c r="AC9" s="6"/>
       <c r="AD9" s="6"/>
       <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
+      <c r="AF9" s="6">
+        <v>2.72</v>
+      </c>
     </row>
     <row r="10" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="13">
-        <v>431009</v>
-      </c>
-      <c r="C10" s="13">
-        <v>3767</v>
-      </c>
-      <c r="D10" s="13">
-        <v>824</v>
-      </c>
-      <c r="E10" s="13">
-        <v>259</v>
-      </c>
-      <c r="F10" s="13">
-        <v>4850</v>
-      </c>
-      <c r="G10" s="13">
-        <v>4712</v>
-      </c>
-      <c r="H10" s="13">
-        <v>138</v>
-      </c>
-      <c r="I10" s="13">
-        <v>1125</v>
-      </c>
-      <c r="J10" s="13">
-        <v>68.900000000000006</v>
-      </c>
-      <c r="K10" s="13">
-        <v>1992</v>
-      </c>
-      <c r="L10" s="13">
-        <v>475</v>
-      </c>
-      <c r="M10" s="13">
-        <v>2468</v>
-      </c>
-      <c r="N10" s="13">
-        <v>1894</v>
-      </c>
-      <c r="O10" s="13">
-        <v>207</v>
-      </c>
-      <c r="P10" s="13">
-        <v>1516</v>
-      </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="13">
-        <v>1786</v>
+      <c r="A10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="12">
+        <v>431037</v>
+      </c>
+      <c r="C10" s="12">
+        <v>985</v>
+      </c>
+      <c r="D10" s="12">
+        <v>167</v>
+      </c>
+      <c r="E10" s="12">
+        <v>112</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1264</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1206</v>
+      </c>
+      <c r="H10" s="12">
+        <v>58</v>
+      </c>
+      <c r="I10" s="12">
+        <v>260</v>
+      </c>
+      <c r="J10" s="12">
+        <v>44.2</v>
+      </c>
+      <c r="K10" s="12">
+        <v>711</v>
+      </c>
+      <c r="L10" s="12">
+        <v>82</v>
+      </c>
+      <c r="M10" s="12">
+        <v>793</v>
+      </c>
+      <c r="N10" s="12">
+        <v>471</v>
+      </c>
+      <c r="O10" s="12">
+        <v>49.4</v>
+      </c>
+      <c r="P10" s="12">
+        <v>473</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>28</v>
+      </c>
+      <c r="R10" s="12">
+        <v>502</v>
       </c>
       <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="13">
-        <v>462</v>
+      <c r="T10" s="12">
+        <v>150</v>
+      </c>
+      <c r="U10" s="12">
+        <v>149</v>
       </c>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
@@ -7536,72 +7520,74 @@
       <c r="AB10" s="6"/>
       <c r="AC10" s="6"/>
       <c r="AD10" s="6"/>
-      <c r="AE10" s="6"/>
+      <c r="AE10" s="12">
+        <v>419</v>
+      </c>
       <c r="AF10" s="6">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="13">
-        <v>431037</v>
-      </c>
-      <c r="C11" s="13">
-        <v>985</v>
-      </c>
-      <c r="D11" s="13">
-        <v>167</v>
-      </c>
-      <c r="E11" s="13">
-        <v>112</v>
-      </c>
-      <c r="F11" s="13">
-        <v>1264</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1206</v>
-      </c>
-      <c r="H11" s="13">
-        <v>58</v>
-      </c>
-      <c r="I11" s="13">
-        <v>260</v>
-      </c>
-      <c r="J11" s="13">
-        <v>44.2</v>
-      </c>
-      <c r="K11" s="13">
-        <v>711</v>
-      </c>
-      <c r="L11" s="13">
-        <v>82</v>
-      </c>
-      <c r="M11" s="13">
-        <v>793</v>
-      </c>
-      <c r="N11" s="13">
-        <v>471</v>
-      </c>
-      <c r="O11" s="13">
-        <v>49.4</v>
-      </c>
-      <c r="P11" s="13">
-        <v>473</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>28</v>
-      </c>
-      <c r="R11" s="13">
-        <v>502</v>
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="12">
+        <v>431093</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2861</v>
+      </c>
+      <c r="D11" s="12">
+        <v>648</v>
+      </c>
+      <c r="E11" s="12">
+        <v>462</v>
+      </c>
+      <c r="F11" s="12">
+        <v>3971</v>
+      </c>
+      <c r="G11" s="12">
+        <v>3582</v>
+      </c>
+      <c r="H11" s="12">
+        <v>389</v>
+      </c>
+      <c r="I11" s="12">
+        <v>750</v>
+      </c>
+      <c r="J11" s="12">
+        <v>54</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1367</v>
+      </c>
+      <c r="L11" s="12">
+        <v>309</v>
+      </c>
+      <c r="M11" s="12">
+        <v>1676</v>
+      </c>
+      <c r="N11" s="12">
+        <v>1233</v>
+      </c>
+      <c r="O11" s="12">
+        <v>288</v>
+      </c>
+      <c r="P11" s="12">
+        <v>1050</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>195</v>
+      </c>
+      <c r="R11" s="12">
+        <v>1283</v>
       </c>
       <c r="S11" s="6"/>
-      <c r="T11" s="13">
-        <v>150</v>
-      </c>
-      <c r="U11" s="13">
-        <v>149</v>
+      <c r="T11" s="12">
+        <v>416</v>
+      </c>
+      <c r="U11" s="12">
+        <v>423</v>
       </c>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -7612,74 +7598,72 @@
       <c r="AB11" s="6"/>
       <c r="AC11" s="6"/>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="13">
-        <v>419</v>
-      </c>
+      <c r="AE11" s="6"/>
       <c r="AF11" s="6">
-        <v>2.52</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="13">
-        <v>431093</v>
-      </c>
-      <c r="C12" s="13">
-        <v>2861</v>
-      </c>
-      <c r="D12" s="13">
-        <v>648</v>
-      </c>
-      <c r="E12" s="13">
-        <v>462</v>
-      </c>
-      <c r="F12" s="13">
-        <v>3971</v>
-      </c>
-      <c r="G12" s="13">
-        <v>3582</v>
-      </c>
-      <c r="H12" s="13">
-        <v>389</v>
-      </c>
-      <c r="I12" s="13">
-        <v>750</v>
-      </c>
-      <c r="J12" s="13">
-        <v>54</v>
-      </c>
-      <c r="K12" s="13">
-        <v>1367</v>
-      </c>
-      <c r="L12" s="13">
-        <v>309</v>
-      </c>
-      <c r="M12" s="13">
-        <v>1676</v>
-      </c>
-      <c r="N12" s="13">
-        <v>1233</v>
-      </c>
-      <c r="O12" s="13">
-        <v>288</v>
-      </c>
-      <c r="P12" s="13">
-        <v>1050</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>195</v>
-      </c>
-      <c r="R12" s="13">
-        <v>1283</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="12">
+        <v>431114</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2038</v>
+      </c>
+      <c r="D12" s="12">
+        <v>511</v>
+      </c>
+      <c r="E12" s="12">
+        <v>335</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2884</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2656</v>
+      </c>
+      <c r="H12" s="12">
+        <v>228</v>
+      </c>
+      <c r="I12" s="12">
+        <v>520</v>
+      </c>
+      <c r="J12" s="12">
+        <v>36.5</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1076</v>
+      </c>
+      <c r="L12" s="12">
+        <v>510</v>
+      </c>
+      <c r="M12" s="12">
+        <v>1586</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1276</v>
+      </c>
+      <c r="O12" s="12">
+        <v>231.2</v>
+      </c>
+      <c r="P12" s="12">
+        <v>1184</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>162</v>
+      </c>
+      <c r="R12" s="12">
+        <v>1636</v>
       </c>
       <c r="S12" s="6"/>
-      <c r="T12" s="13">
-        <v>416</v>
-      </c>
-      <c r="U12" s="13">
-        <v>423</v>
+      <c r="T12" s="12">
+        <v>465</v>
+      </c>
+      <c r="U12" s="12">
+        <v>217</v>
       </c>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
@@ -7692,71 +7676,53 @@
       <c r="AD12" s="6"/>
       <c r="AE12" s="6"/>
       <c r="AF12" s="6">
-        <v>3.1</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="13">
-        <v>431114</v>
-      </c>
-      <c r="C13" s="13">
-        <v>2038</v>
-      </c>
-      <c r="D13" s="13">
-        <v>511</v>
-      </c>
-      <c r="E13" s="13">
-        <v>335</v>
-      </c>
-      <c r="F13" s="13">
-        <v>2884</v>
-      </c>
-      <c r="G13" s="13">
-        <v>2656</v>
-      </c>
-      <c r="H13" s="13">
-        <v>228</v>
-      </c>
-      <c r="I13" s="13">
-        <v>520</v>
-      </c>
-      <c r="J13" s="13">
-        <v>36.5</v>
-      </c>
-      <c r="K13" s="13">
-        <v>1076</v>
-      </c>
-      <c r="L13" s="13">
-        <v>510</v>
-      </c>
-      <c r="M13" s="13">
-        <v>1586</v>
-      </c>
-      <c r="N13" s="13">
-        <v>1276</v>
-      </c>
-      <c r="O13" s="13">
-        <v>231.2</v>
-      </c>
-      <c r="P13" s="13">
-        <v>1184</v>
-      </c>
-      <c r="Q13" s="13">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="12">
+        <v>431227</v>
+      </c>
+      <c r="C13" s="12">
+        <v>131</v>
+      </c>
+      <c r="D13" s="12">
+        <v>20</v>
+      </c>
+      <c r="E13" s="12">
+        <v>11</v>
+      </c>
+      <c r="F13" s="12">
         <v>162</v>
       </c>
-      <c r="R13" s="13">
-        <v>1636</v>
-      </c>
+      <c r="G13" s="12">
+        <v>156</v>
+      </c>
+      <c r="H13" s="12">
+        <v>6</v>
+      </c>
+      <c r="I13" s="12">
+        <v>35</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="12">
+        <v>6.8</v>
+      </c>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="13">
-        <v>465</v>
-      </c>
-      <c r="U13" s="13">
-        <v>217</v>
-      </c>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
       <c r="X13" s="6"/>
@@ -7767,54 +7733,70 @@
       <c r="AC13" s="6"/>
       <c r="AD13" s="6"/>
       <c r="AE13" s="6"/>
-      <c r="AF13" s="6">
-        <v>1.76</v>
-      </c>
+      <c r="AF13" s="6"/>
     </row>
     <row r="14" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="13">
-        <v>431227</v>
-      </c>
-      <c r="C14" s="13">
-        <v>131</v>
-      </c>
-      <c r="D14" s="13">
-        <v>20</v>
-      </c>
-      <c r="E14" s="13">
-        <v>11</v>
-      </c>
-      <c r="F14" s="13">
-        <v>162</v>
-      </c>
-      <c r="G14" s="13">
-        <v>156</v>
-      </c>
-      <c r="H14" s="13">
-        <v>6</v>
-      </c>
-      <c r="I14" s="13">
-        <v>35</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="13">
-        <v>6.8</v>
-      </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
+      <c r="A14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="12">
+        <v>431264</v>
+      </c>
+      <c r="C14" s="12">
+        <v>1351</v>
+      </c>
+      <c r="D14" s="12">
+        <v>220</v>
+      </c>
+      <c r="E14" s="12">
+        <v>171</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1742</v>
+      </c>
+      <c r="G14" s="12">
+        <v>1600</v>
+      </c>
+      <c r="H14" s="12">
+        <v>142</v>
+      </c>
+      <c r="I14" s="12">
+        <v>375</v>
+      </c>
+      <c r="J14" s="12">
+        <v>40</v>
+      </c>
+      <c r="K14" s="12">
+        <v>711</v>
+      </c>
+      <c r="L14" s="12">
+        <v>237</v>
+      </c>
+      <c r="M14" s="12">
+        <v>948</v>
+      </c>
+      <c r="N14" s="12">
+        <v>729</v>
+      </c>
+      <c r="O14" s="12">
+        <v>85.7</v>
+      </c>
+      <c r="P14" s="12">
+        <v>700</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>146</v>
+      </c>
+      <c r="R14" s="12">
+        <v>909</v>
+      </c>
+      <c r="S14" s="12">
+        <v>96</v>
+      </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
+      <c r="U14" s="12">
+        <v>250</v>
+      </c>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
@@ -7824,764 +7806,694 @@
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="6"/>
-      <c r="AF14" s="6"/>
+      <c r="AE14" s="12">
+        <v>536</v>
+      </c>
+      <c r="AF14" s="6">
+        <v>1.92</v>
+      </c>
     </row>
     <row r="15" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="13">
-        <v>431264</v>
-      </c>
-      <c r="C15" s="13">
-        <v>1351</v>
-      </c>
-      <c r="D15" s="13">
-        <v>220</v>
-      </c>
-      <c r="E15" s="13">
-        <v>171</v>
-      </c>
-      <c r="F15" s="13">
-        <v>1742</v>
-      </c>
-      <c r="G15" s="13">
-        <v>1600</v>
-      </c>
-      <c r="H15" s="13">
-        <v>142</v>
-      </c>
-      <c r="I15" s="13">
-        <v>375</v>
-      </c>
-      <c r="J15" s="13">
-        <v>40</v>
-      </c>
-      <c r="K15" s="13">
-        <v>711</v>
-      </c>
-      <c r="L15" s="13">
-        <v>237</v>
-      </c>
-      <c r="M15" s="13">
-        <v>948</v>
-      </c>
-      <c r="N15" s="13">
-        <v>729</v>
-      </c>
-      <c r="O15" s="13">
-        <v>85.7</v>
-      </c>
-      <c r="P15" s="13">
-        <v>700</v>
-      </c>
-      <c r="Q15" s="13">
+      <c r="A15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="12">
+        <v>431310</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4206</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1473</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1106</v>
+      </c>
+      <c r="F15" s="12">
+        <v>6785</v>
+      </c>
+      <c r="G15" s="12">
+        <v>5895</v>
+      </c>
+      <c r="H15" s="12">
+        <v>890</v>
+      </c>
+      <c r="I15" s="12">
+        <v>1040</v>
+      </c>
+      <c r="J15" s="12">
+        <v>70.7</v>
+      </c>
+      <c r="K15" s="12">
+        <v>2306</v>
+      </c>
+      <c r="L15" s="12">
+        <v>1197</v>
+      </c>
+      <c r="M15" s="12">
+        <v>3503</v>
+      </c>
+      <c r="N15" s="12">
+        <v>2668</v>
+      </c>
+      <c r="O15" s="12">
+        <v>449</v>
+      </c>
+      <c r="P15" s="12">
+        <v>2482</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>909</v>
+      </c>
+      <c r="R15" s="12">
+        <v>8491</v>
+      </c>
+      <c r="S15" s="12">
+        <v>282</v>
+      </c>
+      <c r="T15" s="12">
+        <v>808</v>
+      </c>
+      <c r="U15" s="12">
+        <v>811</v>
+      </c>
+      <c r="V15" s="12">
+        <v>90</v>
+      </c>
+      <c r="W15" s="12">
+        <v>549</v>
+      </c>
+      <c r="X15" s="12">
+        <v>833</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>592</v>
+      </c>
+      <c r="Z15" s="12">
+        <v>508</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>776</v>
+      </c>
+      <c r="AB15" s="12">
+        <v>873</v>
+      </c>
+      <c r="AC15" s="12">
+        <v>549</v>
+      </c>
+      <c r="AD15" s="12">
+        <v>159</v>
+      </c>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="12">
+        <v>431359</v>
+      </c>
+      <c r="C16" s="12">
+        <v>380</v>
+      </c>
+      <c r="D16" s="12">
+        <v>40</v>
+      </c>
+      <c r="E16" s="12">
+        <v>129</v>
+      </c>
+      <c r="F16" s="12">
+        <v>549</v>
+      </c>
+      <c r="G16" s="12">
+        <v>393</v>
+      </c>
+      <c r="H16" s="12">
+        <v>156</v>
+      </c>
+      <c r="I16" s="12">
+        <v>105</v>
+      </c>
+      <c r="J16" s="12">
+        <v>61.9</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="12">
+        <v>16.8</v>
+      </c>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+    </row>
+    <row r="17" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="12">
+        <v>439057</v>
+      </c>
+      <c r="C17" s="12">
+        <v>11487</v>
+      </c>
+      <c r="D17" s="12">
+        <v>5712</v>
+      </c>
+      <c r="E17" s="12">
+        <v>11327</v>
+      </c>
+      <c r="F17" s="12">
+        <v>28526</v>
+      </c>
+      <c r="G17" s="12">
+        <v>18746</v>
+      </c>
+      <c r="H17" s="12">
+        <v>9780</v>
+      </c>
+      <c r="I17" s="12">
+        <v>4310</v>
+      </c>
+      <c r="J17" s="12">
+        <v>86</v>
+      </c>
+      <c r="K17" s="12">
+        <v>9395</v>
+      </c>
+      <c r="L17" s="12">
+        <v>6896</v>
+      </c>
+      <c r="M17" s="12">
+        <v>16292</v>
+      </c>
+      <c r="N17" s="12">
+        <v>9961</v>
+      </c>
+      <c r="O17" s="12">
+        <v>1903</v>
+      </c>
+      <c r="P17" s="12">
+        <v>10793</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>3019</v>
+      </c>
+      <c r="R17" s="12">
+        <v>31266</v>
+      </c>
+      <c r="S17" s="12">
+        <v>2341</v>
+      </c>
+      <c r="T17" s="12">
+        <v>5102</v>
+      </c>
+      <c r="U17" s="12">
+        <v>2031</v>
+      </c>
+      <c r="V17" s="12">
+        <v>84.1</v>
+      </c>
+      <c r="W17" s="12">
+        <v>3444</v>
+      </c>
+      <c r="X17" s="12">
+        <v>2265</v>
+      </c>
+      <c r="Y17" s="12">
+        <v>2933</v>
+      </c>
+      <c r="Z17" s="12">
+        <v>2151</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>2019</v>
+      </c>
+      <c r="AB17" s="12">
+        <v>3894</v>
+      </c>
+      <c r="AC17" s="12">
+        <v>3444</v>
+      </c>
+      <c r="AD17" s="12">
+        <v>1138</v>
+      </c>
+      <c r="AE17" s="12">
+        <v>7455</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="12">
+        <v>431444</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1306</v>
+      </c>
+      <c r="D18" s="12">
+        <v>219</v>
+      </c>
+      <c r="E18" s="12">
+        <v>183</v>
+      </c>
+      <c r="F18" s="12">
+        <v>1708</v>
+      </c>
+      <c r="G18" s="12">
+        <v>1563</v>
+      </c>
+      <c r="H18" s="12">
+        <v>145</v>
+      </c>
+      <c r="I18" s="12">
+        <v>295</v>
+      </c>
+      <c r="J18" s="12">
+        <v>44.1</v>
+      </c>
+      <c r="K18" s="12">
+        <v>738</v>
+      </c>
+      <c r="L18" s="12">
         <v>146</v>
       </c>
-      <c r="R15" s="13">
-        <v>909</v>
-      </c>
-      <c r="S15" s="13">
-        <v>96</v>
-      </c>
-      <c r="T15" s="6"/>
-      <c r="U15" s="13">
-        <v>250</v>
-      </c>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="13">
-        <v>536</v>
-      </c>
-      <c r="AF15" s="6">
+      <c r="M18" s="12">
+        <v>883</v>
+      </c>
+      <c r="N18" s="12">
+        <v>719</v>
+      </c>
+      <c r="O18" s="12">
+        <v>78</v>
+      </c>
+      <c r="P18" s="12">
+        <v>634</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>170</v>
+      </c>
+      <c r="R18" s="12">
+        <v>891</v>
+      </c>
+      <c r="S18" s="6"/>
+      <c r="T18" s="12">
+        <v>168</v>
+      </c>
+      <c r="U18" s="12">
+        <v>188</v>
+      </c>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="12">
+        <v>561</v>
+      </c>
+      <c r="AF18" s="6">
         <v>1.92</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="13">
-        <v>431310</v>
-      </c>
-      <c r="C16" s="13">
-        <v>4206</v>
-      </c>
-      <c r="D16" s="13">
-        <v>1473</v>
-      </c>
-      <c r="E16" s="13">
-        <v>1106</v>
-      </c>
-      <c r="F16" s="13">
-        <v>6785</v>
-      </c>
-      <c r="G16" s="13">
-        <v>5895</v>
-      </c>
-      <c r="H16" s="13">
-        <v>890</v>
-      </c>
-      <c r="I16" s="13">
-        <v>1040</v>
-      </c>
-      <c r="J16" s="13">
-        <v>70.7</v>
-      </c>
-      <c r="K16" s="13">
-        <v>2306</v>
-      </c>
-      <c r="L16" s="13">
-        <v>1197</v>
-      </c>
-      <c r="M16" s="13">
-        <v>3503</v>
-      </c>
-      <c r="N16" s="13">
-        <v>2668</v>
-      </c>
-      <c r="O16" s="13">
-        <v>449</v>
-      </c>
-      <c r="P16" s="13">
-        <v>2482</v>
-      </c>
-      <c r="Q16" s="13">
-        <v>909</v>
-      </c>
-      <c r="R16" s="13">
-        <v>8491</v>
-      </c>
-      <c r="S16" s="13">
-        <v>282</v>
-      </c>
-      <c r="T16" s="13">
-        <v>808</v>
-      </c>
-      <c r="U16" s="13">
-        <v>811</v>
-      </c>
-      <c r="V16" s="13">
-        <v>90</v>
-      </c>
-      <c r="W16" s="13">
-        <v>549</v>
-      </c>
-      <c r="X16" s="13">
-        <v>833</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>592</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>508</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>776</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>873</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>549</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>159</v>
-      </c>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="13">
-        <v>431359</v>
-      </c>
-      <c r="C17" s="13">
-        <v>380</v>
-      </c>
-      <c r="D17" s="13">
-        <v>40</v>
-      </c>
-      <c r="E17" s="13">
-        <v>129</v>
-      </c>
-      <c r="F17" s="13">
-        <v>549</v>
-      </c>
-      <c r="G17" s="13">
-        <v>393</v>
-      </c>
-      <c r="H17" s="13">
-        <v>156</v>
-      </c>
-      <c r="I17" s="13">
-        <v>105</v>
-      </c>
-      <c r="J17" s="13">
-        <v>61.9</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="13">
-        <v>16.8</v>
-      </c>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="6"/>
-      <c r="AF17" s="6"/>
-    </row>
-    <row r="18" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="13">
-        <v>439057</v>
-      </c>
-      <c r="C18" s="13">
-        <v>11487</v>
-      </c>
-      <c r="D18" s="13">
-        <v>5712</v>
-      </c>
-      <c r="E18" s="13">
-        <v>11327</v>
-      </c>
-      <c r="F18" s="13">
-        <v>28526</v>
-      </c>
-      <c r="G18" s="13">
-        <v>18746</v>
-      </c>
-      <c r="H18" s="13">
-        <v>9780</v>
-      </c>
-      <c r="I18" s="13">
-        <v>4310</v>
-      </c>
-      <c r="J18" s="13">
-        <v>86</v>
-      </c>
-      <c r="K18" s="13">
-        <v>9395</v>
-      </c>
-      <c r="L18" s="13">
-        <v>6896</v>
-      </c>
-      <c r="M18" s="13">
-        <v>16292</v>
-      </c>
-      <c r="N18" s="13">
-        <v>9961</v>
-      </c>
-      <c r="O18" s="13">
-        <v>1903</v>
-      </c>
-      <c r="P18" s="13">
-        <v>10793</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>3019</v>
-      </c>
-      <c r="R18" s="13">
-        <v>31266</v>
-      </c>
-      <c r="S18" s="13">
-        <v>2341</v>
-      </c>
-      <c r="T18" s="13">
-        <v>5102</v>
-      </c>
-      <c r="U18" s="13">
-        <v>2031</v>
-      </c>
-      <c r="V18" s="13">
-        <v>84.1</v>
-      </c>
-      <c r="W18" s="13">
-        <v>3444</v>
-      </c>
-      <c r="X18" s="13">
-        <v>2265</v>
-      </c>
-      <c r="Y18" s="13">
-        <v>2933</v>
-      </c>
-      <c r="Z18" s="13">
-        <v>2151</v>
-      </c>
-      <c r="AA18" s="13">
-        <v>2019</v>
-      </c>
-      <c r="AB18" s="13">
-        <v>3894</v>
-      </c>
-      <c r="AC18" s="13">
-        <v>3444</v>
-      </c>
-      <c r="AD18" s="13">
-        <v>1138</v>
-      </c>
-      <c r="AE18" s="13">
-        <v>7455</v>
-      </c>
-      <c r="AF18" s="6">
-        <v>0.91</v>
-      </c>
-    </row>
     <row r="19" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="13">
-        <v>431444</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1306</v>
-      </c>
-      <c r="D19" s="13">
-        <v>219</v>
-      </c>
-      <c r="E19" s="13">
-        <v>183</v>
-      </c>
-      <c r="F19" s="13">
-        <v>1708</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1563</v>
-      </c>
-      <c r="H19" s="13">
-        <v>145</v>
-      </c>
-      <c r="I19" s="13">
-        <v>295</v>
-      </c>
-      <c r="J19" s="13">
-        <v>44.1</v>
-      </c>
-      <c r="K19" s="13">
-        <v>738</v>
-      </c>
-      <c r="L19" s="13">
-        <v>146</v>
-      </c>
-      <c r="M19" s="13">
-        <v>883</v>
-      </c>
-      <c r="N19" s="13">
-        <v>719</v>
-      </c>
-      <c r="O19" s="13">
+      <c r="A19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="12">
+        <v>431482</v>
+      </c>
+      <c r="C19" s="12">
+        <v>79299</v>
+      </c>
+      <c r="D19" s="12">
+        <v>27774</v>
+      </c>
+      <c r="E19" s="12">
+        <v>29423</v>
+      </c>
+      <c r="F19" s="12">
+        <v>136496</v>
+      </c>
+      <c r="G19" s="12">
+        <v>110842</v>
+      </c>
+      <c r="H19" s="12">
+        <v>25654</v>
+      </c>
+      <c r="I19" s="12">
+        <v>23215</v>
+      </c>
+      <c r="J19" s="12">
+        <v>93</v>
+      </c>
+      <c r="K19" s="12">
+        <v>51198</v>
+      </c>
+      <c r="L19" s="12">
+        <v>19395</v>
+      </c>
+      <c r="M19" s="12">
+        <v>70593</v>
+      </c>
+      <c r="N19" s="12">
+        <v>62433</v>
+      </c>
+      <c r="O19" s="12">
+        <v>9466</v>
+      </c>
+      <c r="P19" s="12">
+        <v>52391</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>7772</v>
+      </c>
+      <c r="R19" s="12">
+        <v>65711</v>
+      </c>
+      <c r="S19" s="12">
+        <v>9202</v>
+      </c>
+      <c r="T19" s="12">
+        <v>29822</v>
+      </c>
+      <c r="U19" s="12">
+        <v>11396</v>
+      </c>
+      <c r="V19" s="12">
+        <v>94.5</v>
+      </c>
+      <c r="W19" s="12">
+        <v>12909</v>
+      </c>
+      <c r="X19" s="12">
+        <v>15918</v>
+      </c>
+      <c r="Y19" s="12">
+        <v>10610</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>12954</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>12526</v>
+      </c>
+      <c r="AB19" s="12">
+        <v>19286</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>12909</v>
+      </c>
+      <c r="AD19" s="12">
+        <v>4922</v>
+      </c>
+      <c r="AE19" s="12">
+        <v>41003</v>
+      </c>
+      <c r="AF19" s="6">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="12">
+        <v>431536</v>
+      </c>
+      <c r="C20" s="12">
+        <v>9958</v>
+      </c>
+      <c r="D20" s="12">
+        <v>3001</v>
+      </c>
+      <c r="E20" s="12">
+        <v>3608</v>
+      </c>
+      <c r="F20" s="12">
+        <v>16567</v>
+      </c>
+      <c r="G20" s="12">
+        <v>13690</v>
+      </c>
+      <c r="H20" s="12">
+        <v>2877</v>
+      </c>
+      <c r="I20" s="12">
+        <v>2720</v>
+      </c>
+      <c r="J20" s="12">
+        <v>77.900000000000006</v>
+      </c>
+      <c r="K20" s="12">
+        <v>6013</v>
+      </c>
+      <c r="L20" s="12">
+        <v>2649</v>
+      </c>
+      <c r="M20" s="12">
+        <v>8662</v>
+      </c>
+      <c r="N20" s="12">
+        <v>6530</v>
+      </c>
+      <c r="O20" s="12">
+        <v>1218.7</v>
+      </c>
+      <c r="P20" s="12">
+        <v>6198</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>1366</v>
+      </c>
+      <c r="R20" s="12">
+        <v>14397</v>
+      </c>
+      <c r="S20" s="12">
+        <v>1251</v>
+      </c>
+      <c r="T20" s="12">
+        <v>3456</v>
+      </c>
+      <c r="U20" s="12">
+        <v>1179</v>
+      </c>
+      <c r="V20" s="12">
+        <v>92.5</v>
+      </c>
+      <c r="W20" s="12">
+        <v>1513</v>
+      </c>
+      <c r="X20" s="12">
+        <v>1989</v>
+      </c>
+      <c r="Y20" s="12">
+        <v>1523</v>
+      </c>
+      <c r="Z20" s="12">
+        <v>1173</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>1594</v>
+      </c>
+      <c r="AB20" s="12">
+        <v>2430</v>
+      </c>
+      <c r="AC20" s="12">
+        <v>1513</v>
+      </c>
+      <c r="AD20" s="12">
+        <v>464</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>4634</v>
+      </c>
+      <c r="AF20" s="6">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="12">
+        <v>431649</v>
+      </c>
+      <c r="C21" s="12">
+        <v>279</v>
+      </c>
+      <c r="D21" s="12">
         <v>78</v>
       </c>
-      <c r="P19" s="13">
-        <v>634</v>
-      </c>
-      <c r="Q19" s="13">
-        <v>170</v>
-      </c>
-      <c r="R19" s="13">
-        <v>891</v>
-      </c>
-      <c r="S19" s="6"/>
-      <c r="T19" s="13">
-        <v>168</v>
-      </c>
-      <c r="U19" s="13">
-        <v>188</v>
-      </c>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-      <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="13">
-        <v>561</v>
-      </c>
-      <c r="AF19" s="6">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="13">
-        <v>431482</v>
-      </c>
-      <c r="C20" s="13">
-        <v>79299</v>
-      </c>
-      <c r="D20" s="13">
-        <v>27774</v>
-      </c>
-      <c r="E20" s="13">
-        <v>29423</v>
-      </c>
-      <c r="F20" s="13">
-        <v>136496</v>
-      </c>
-      <c r="G20" s="13">
-        <v>110842</v>
-      </c>
-      <c r="H20" s="13">
-        <v>25654</v>
-      </c>
-      <c r="I20" s="13">
-        <v>23215</v>
-      </c>
-      <c r="J20" s="13">
-        <v>93</v>
-      </c>
-      <c r="K20" s="13">
-        <v>51198</v>
-      </c>
-      <c r="L20" s="13">
-        <v>19395</v>
-      </c>
-      <c r="M20" s="13">
-        <v>70593</v>
-      </c>
-      <c r="N20" s="13">
-        <v>62433</v>
-      </c>
-      <c r="O20" s="13">
-        <v>9466</v>
-      </c>
-      <c r="P20" s="13">
-        <v>52391</v>
-      </c>
-      <c r="Q20" s="13">
-        <v>7772</v>
-      </c>
-      <c r="R20" s="13">
-        <v>65711</v>
-      </c>
-      <c r="S20" s="13">
-        <v>9202</v>
-      </c>
-      <c r="T20" s="13">
-        <v>29822</v>
-      </c>
-      <c r="U20" s="13">
-        <v>11396</v>
-      </c>
-      <c r="V20" s="13">
-        <v>94.5</v>
-      </c>
-      <c r="W20" s="13">
-        <v>12909</v>
-      </c>
-      <c r="X20" s="13">
-        <v>15918</v>
-      </c>
-      <c r="Y20" s="13">
-        <v>10610</v>
-      </c>
-      <c r="Z20" s="13">
-        <v>12954</v>
-      </c>
-      <c r="AA20" s="13">
-        <v>12526</v>
-      </c>
-      <c r="AB20" s="13">
-        <v>19286</v>
-      </c>
-      <c r="AC20" s="13">
-        <v>12909</v>
-      </c>
-      <c r="AD20" s="13">
-        <v>4922</v>
-      </c>
-      <c r="AE20" s="13">
-        <v>41003</v>
-      </c>
-      <c r="AF20" s="6">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="21" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="13">
-        <v>431536</v>
-      </c>
-      <c r="C21" s="13">
-        <v>9958</v>
-      </c>
-      <c r="D21" s="13">
-        <v>3001</v>
-      </c>
-      <c r="E21" s="13">
-        <v>3608</v>
-      </c>
-      <c r="F21" s="13">
-        <v>16567</v>
-      </c>
-      <c r="G21" s="13">
-        <v>13690</v>
-      </c>
-      <c r="H21" s="13">
-        <v>2877</v>
-      </c>
-      <c r="I21" s="13">
-        <v>2720</v>
-      </c>
-      <c r="J21" s="13">
-        <v>77.900000000000006</v>
-      </c>
-      <c r="K21" s="13">
-        <v>6013</v>
-      </c>
-      <c r="L21" s="13">
-        <v>2649</v>
-      </c>
-      <c r="M21" s="13">
-        <v>8662</v>
-      </c>
-      <c r="N21" s="13">
-        <v>6530</v>
-      </c>
-      <c r="O21" s="13">
-        <v>1218.7</v>
-      </c>
-      <c r="P21" s="13">
-        <v>6198</v>
-      </c>
-      <c r="Q21" s="13">
-        <v>1366</v>
-      </c>
-      <c r="R21" s="13">
-        <v>14397</v>
-      </c>
-      <c r="S21" s="13">
-        <v>1251</v>
-      </c>
-      <c r="T21" s="13">
-        <v>3456</v>
-      </c>
-      <c r="U21" s="13">
-        <v>1179</v>
-      </c>
-      <c r="V21" s="13">
-        <v>92.5</v>
-      </c>
-      <c r="W21" s="13">
-        <v>1513</v>
-      </c>
-      <c r="X21" s="13">
-        <v>1989</v>
-      </c>
-      <c r="Y21" s="13">
-        <v>1523</v>
-      </c>
-      <c r="Z21" s="13">
-        <v>1173</v>
-      </c>
-      <c r="AA21" s="13">
-        <v>1594</v>
-      </c>
-      <c r="AB21" s="13">
-        <v>2430</v>
-      </c>
-      <c r="AC21" s="13">
-        <v>1513</v>
-      </c>
-      <c r="AD21" s="13">
-        <v>464</v>
-      </c>
-      <c r="AE21" s="13">
-        <v>4634</v>
-      </c>
-      <c r="AF21" s="6">
-        <v>1.1499999999999999</v>
-      </c>
+      <c r="E21" s="12">
+        <v>60</v>
+      </c>
+      <c r="F21" s="12">
+        <v>417</v>
+      </c>
+      <c r="G21" s="12">
+        <v>369</v>
+      </c>
+      <c r="H21" s="12">
+        <v>48</v>
+      </c>
+      <c r="I21" s="12">
+        <v>65</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="12">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
     </row>
     <row r="22" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="13">
-        <v>431649</v>
-      </c>
-      <c r="C22" s="13">
-        <v>279</v>
-      </c>
-      <c r="D22" s="13">
-        <v>78</v>
-      </c>
-      <c r="E22" s="13">
-        <v>60</v>
-      </c>
-      <c r="F22" s="13">
-        <v>417</v>
-      </c>
-      <c r="G22" s="13">
-        <v>369</v>
-      </c>
-      <c r="H22" s="13">
-        <v>48</v>
-      </c>
-      <c r="I22" s="13">
-        <v>65</v>
-      </c>
-      <c r="J22" s="13">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="13">
-        <v>40.700000000000003</v>
-      </c>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6"/>
-      <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="6"/>
-      <c r="AF22" s="6"/>
-    </row>
-    <row r="23" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B22" s="12">
         <v>431711</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C22" s="12">
         <v>12983</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D22" s="12">
         <v>5380</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E22" s="12">
         <v>4192</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F22" s="12">
         <v>22555</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G22" s="12">
         <v>18949</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H22" s="12">
         <v>3606</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I22" s="12">
         <v>4290</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J22" s="12">
         <v>81.900000000000006</v>
       </c>
-      <c r="K23" s="13">
+      <c r="K22" s="12">
         <v>8683</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L22" s="12">
         <v>4370</v>
       </c>
-      <c r="M23" s="13">
+      <c r="M22" s="12">
         <v>13053</v>
       </c>
-      <c r="N23" s="13">
+      <c r="N22" s="12">
         <v>8704</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O22" s="12">
         <v>1496.5</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P22" s="12">
         <v>8401</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q22" s="12">
         <v>1758</v>
       </c>
-      <c r="R23" s="13">
+      <c r="R22" s="12">
         <v>17625</v>
       </c>
-      <c r="S23" s="13">
+      <c r="S22" s="12">
         <v>1132</v>
       </c>
-      <c r="T23" s="13">
+      <c r="T22" s="12">
         <v>4631</v>
       </c>
-      <c r="U23" s="13">
+      <c r="U22" s="12">
         <v>1862</v>
       </c>
-      <c r="V23" s="13">
+      <c r="V22" s="12">
         <v>89.5</v>
       </c>
-      <c r="W23" s="13">
+      <c r="W22" s="12">
         <v>2015</v>
       </c>
-      <c r="X23" s="13">
+      <c r="X22" s="12">
         <v>2667</v>
       </c>
-      <c r="Y23" s="13">
+      <c r="Y22" s="12">
         <v>1576</v>
       </c>
-      <c r="Z23" s="13">
+      <c r="Z22" s="12">
         <v>2143</v>
       </c>
-      <c r="AA23" s="13">
+      <c r="AA22" s="12">
         <v>2307</v>
       </c>
-      <c r="AB23" s="13">
+      <c r="AB22" s="12">
         <v>3200</v>
       </c>
-      <c r="AC23" s="13">
+      <c r="AC22" s="12">
         <v>2015</v>
       </c>
-      <c r="AD23" s="13">
+      <c r="AD22" s="12">
         <v>491</v>
       </c>
-      <c r="AE23" s="13">
+      <c r="AE22" s="12">
         <v>6980</v>
       </c>
-      <c r="AF23" s="6">
+      <c r="AF22" s="6">
         <v>1.28</v>
       </c>
+    </row>
+    <row r="24" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="C25" s="3"/>
@@ -8589,7 +8501,6 @@
     </row>
     <row r="26" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="C27" s="3"/>
@@ -8647,18 +8558,9 @@
     </row>
     <row r="45" spans="3:4" ht="15" x14ac:dyDescent="0.2">
       <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="3:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
+      <c r="D45" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="AF1:AF2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Team102.2.DataExtractionCode.v1.1/DataSprint.xlsx
+++ b/Team102.2.DataExtractionCode.v1.1/DataSprint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iliasasskali/Desktop/Project Management/PMTeam102-2/Team102.2.DataExtractionCode.v1.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC716F54-CB09-444C-94F4-0B314095B403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945BDFB5-AD6E-164C-B79A-EE840ABB6F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Poblacio" sheetId="1" r:id="rId1"/>
@@ -191,12 +191,6 @@
     <t>Població total (2020)</t>
   </si>
   <si>
-    <t>Població </t>
-  </si>
-  <si>
-    <t>Densitat de població </t>
-  </si>
-  <si>
     <t>Índex de recanvi poblacional</t>
   </si>
   <si>
@@ -285,6 +279,12 @@
   </si>
   <si>
     <t>Habitatges familiars principals - Per règim de tinença - De propietat (2011)</t>
+  </si>
+  <si>
+    <t>Població</t>
+  </si>
+  <si>
+    <t>Densitat de població</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1391,8 +1391,8 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>31</v>
@@ -1417,7 +1417,7 @@
         <v>33</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6689,7 +6689,7 @@
   </sheetPr>
   <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -6737,94 +6737,94 @@
         <v>50</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>51</v>
       </c>
       <c r="G1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="X1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="Y1" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="AB1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AC1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AD1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AE1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AD1" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>83</v>
-      </c>
       <c r="AF1" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="15" x14ac:dyDescent="0.2">

--- a/Team102.2.DataExtractionCode.v1.1/DataSprint.xlsx
+++ b/Team102.2.DataExtractionCode.v1.1/DataSprint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iliasasskali/Desktop/Project Management/PMTeam102-2/Team102.2.DataExtractionCode.v1.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Users\Joel\Desktop\Uni\2021\1r Trimestre\Project Managment\PMTeam102-2\Team102.2.DataExtractionCode.v1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945BDFB5-AD6E-164C-B79A-EE840ABB6F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8254909B-FA95-462C-BDD3-CFF297D0855A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Poblacio" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="84">
   <si>
     <t>Municipi</t>
   </si>
@@ -291,7 +291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -352,6 +352,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -388,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -413,6 +420,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,17 +701,17 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -732,7 +740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
@@ -761,7 +769,7 @@
         <v>5820</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -791,7 +799,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -820,7 +828,7 @@
         <v>4290</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -849,7 +857,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -878,7 +886,7 @@
         <v>4710</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -907,7 +915,7 @@
         <v>5220</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -936,7 +944,7 @@
         <v>4230</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
@@ -959,7 +967,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -988,7 +996,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -1017,7 +1025,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -1075,7 +1083,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -1104,7 +1112,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -1127,7 +1135,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -1156,7 +1164,7 @@
         <v>4470</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
@@ -1179,7 +1187,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -1208,7 +1216,7 @@
         <v>3930</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
@@ -1237,7 +1245,7 @@
         <v>4830</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
@@ -1266,7 +1274,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
@@ -1289,7 +1297,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
@@ -1318,7 +1326,7 @@
         <v>4170</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
@@ -1347,7 +1355,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>30</v>
       </c>
@@ -1391,16 +1399,16 @@
   </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +1428,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>25</v>
       </c>
@@ -1440,7 +1448,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -1460,7 +1468,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
@@ -1480,7 +1488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1500,7 +1508,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +1528,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -1540,7 +1548,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1558,7 +1566,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
@@ -1578,7 +1586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1598,7 +1606,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
@@ -1618,7 +1626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -1638,7 +1646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
@@ -1658,7 +1666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -1678,7 +1686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -1698,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -1718,7 +1726,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>23</v>
       </c>
@@ -1738,7 +1746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -1758,7 +1766,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>11</v>
       </c>
@@ -1778,7 +1786,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>26</v>
       </c>
@@ -1798,7 +1806,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>22</v>
       </c>
@@ -1818,7 +1826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
@@ -1838,7 +1846,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>15</v>
       </c>
@@ -1858,7 +1866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>30</v>
       </c>
@@ -1891,15 +1899,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F194"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176:B184"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1919,7 +1927,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43012</v>
       </c>
@@ -1939,7 +1947,7 @@
         <v>539.66999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43012</v>
       </c>
@@ -1959,7 +1967,7 @@
         <v>529.19000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43012</v>
       </c>
@@ -1979,7 +1987,7 @@
         <v>508.73</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43012</v>
       </c>
@@ -1999,7 +2007,7 @@
         <v>508.57</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43012</v>
       </c>
@@ -2019,7 +2027,7 @@
         <v>533.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43012</v>
       </c>
@@ -2039,7 +2047,7 @@
         <v>562.62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43012</v>
       </c>
@@ -2059,7 +2067,7 @@
         <v>600.21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43012</v>
       </c>
@@ -2079,7 +2087,7 @@
         <v>592.88</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43012</v>
       </c>
@@ -2099,7 +2107,7 @@
         <v>619.67999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43012</v>
       </c>
@@ -2119,7 +2127,7 @@
         <v>685.11</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43047</v>
       </c>
@@ -2139,7 +2147,7 @@
         <v>409.62</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43047</v>
       </c>
@@ -2159,7 +2167,7 @@
         <v>350.95</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43047</v>
       </c>
@@ -2179,7 +2187,7 @@
         <v>324.02999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43047</v>
       </c>
@@ -2199,7 +2207,7 @@
         <v>294.87</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43047</v>
       </c>
@@ -2219,7 +2227,7 @@
         <v>307.8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43047</v>
       </c>
@@ -2239,7 +2247,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43047</v>
       </c>
@@ -2259,7 +2267,7 @@
         <v>326.3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43047</v>
       </c>
@@ -2279,7 +2287,7 @@
         <v>357.48</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43047</v>
       </c>
@@ -2299,7 +2307,7 @@
         <v>402.25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43047</v>
       </c>
@@ -2319,7 +2327,7 @@
         <v>388.84</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43050</v>
       </c>
@@ -2339,7 +2347,7 @@
         <v>471.71</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43050</v>
       </c>
@@ -2359,7 +2367,7 @@
         <v>484.69</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43050</v>
       </c>
@@ -2379,7 +2387,7 @@
         <v>435.1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43050</v>
       </c>
@@ -2399,7 +2407,7 @@
         <v>457.54</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43050</v>
       </c>
@@ -2419,7 +2427,7 @@
         <v>415.77</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43050</v>
       </c>
@@ -2439,7 +2447,7 @@
         <v>465.75</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43050</v>
       </c>
@@ -2459,7 +2467,7 @@
         <v>484.14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43050</v>
       </c>
@@ -2479,7 +2487,7 @@
         <v>554.99</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43050</v>
       </c>
@@ -2499,7 +2507,7 @@
         <v>527.14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43050</v>
       </c>
@@ -2519,7 +2527,7 @@
         <v>549.92999999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43043</v>
       </c>
@@ -2539,7 +2547,7 @@
         <v>571.66999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43043</v>
       </c>
@@ -2559,7 +2567,7 @@
         <v>522.71</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43043</v>
       </c>
@@ -2579,7 +2587,7 @@
         <v>560.97</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43043</v>
       </c>
@@ -2599,7 +2607,7 @@
         <v>487.5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43043</v>
       </c>
@@ -2619,7 +2627,7 @@
         <v>739.66</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43043</v>
       </c>
@@ -2639,7 +2647,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43043</v>
       </c>
@@ -2659,7 +2667,7 @@
         <v>575.55999999999995</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43043</v>
       </c>
@@ -2679,7 +2687,7 @@
         <v>586.19000000000005</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43043</v>
       </c>
@@ -2699,7 +2707,7 @@
         <v>636.76</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43043</v>
       </c>
@@ -2719,7 +2727,7 @@
         <v>677.33</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43095</v>
       </c>
@@ -2739,7 +2747,7 @@
         <v>446.11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43095</v>
       </c>
@@ -2759,7 +2767,7 @@
         <v>413.95</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43095</v>
       </c>
@@ -2779,7 +2787,7 @@
         <v>377.81</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43095</v>
       </c>
@@ -2799,7 +2807,7 @@
         <v>378.49</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>43095</v>
       </c>
@@ -2819,7 +2827,7 @@
         <v>382.87</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43095</v>
       </c>
@@ -2839,7 +2847,7 @@
         <v>397.58</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43095</v>
       </c>
@@ -2859,7 +2867,7 @@
         <v>394.22</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43095</v>
       </c>
@@ -2879,7 +2887,7 @@
         <v>409.01</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43095</v>
       </c>
@@ -2899,7 +2907,7 @@
         <v>456.16</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>43095</v>
       </c>
@@ -2919,7 +2927,7 @@
         <v>483.99</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>43100</v>
       </c>
@@ -2939,7 +2947,7 @@
         <v>511.54</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>43100</v>
       </c>
@@ -2959,7 +2967,7 @@
         <v>481.21</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>43100</v>
       </c>
@@ -2979,7 +2987,7 @@
         <v>548.14</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>43100</v>
       </c>
@@ -2999,7 +3007,7 @@
         <v>469.91</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>43100</v>
       </c>
@@ -3019,7 +3027,7 @@
         <v>520.38</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>43100</v>
       </c>
@@ -3039,7 +3047,7 @@
         <v>590.38</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>43100</v>
       </c>
@@ -3059,7 +3067,7 @@
         <v>597.73</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>43100</v>
       </c>
@@ -3079,7 +3087,7 @@
         <v>693.44</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>43100</v>
       </c>
@@ -3099,7 +3107,7 @@
         <v>537.54</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>43100</v>
       </c>
@@ -3119,7 +3127,7 @@
         <v>545.34</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>43907</v>
       </c>
@@ -3139,7 +3147,7 @@
         <v>416.95</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>43907</v>
       </c>
@@ -3159,7 +3167,7 @@
         <v>400.68</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>43907</v>
       </c>
@@ -3179,7 +3187,7 @@
         <v>388.6</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>43907</v>
       </c>
@@ -3199,7 +3207,7 @@
         <v>394.04</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>43907</v>
       </c>
@@ -3219,7 +3227,7 @@
         <v>356.94</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>43907</v>
       </c>
@@ -3239,7 +3247,7 @@
         <v>350.86</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>43907</v>
       </c>
@@ -3259,7 +3267,7 @@
         <v>382.41</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>43907</v>
       </c>
@@ -3279,7 +3287,7 @@
         <v>413.76</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>43907</v>
       </c>
@@ -3299,7 +3307,7 @@
         <v>448.62</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>43907</v>
       </c>
@@ -3319,7 +3327,7 @@
         <v>428.37</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>43097</v>
       </c>
@@ -3339,7 +3347,7 @@
         <v>372.83</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>43097</v>
       </c>
@@ -3359,7 +3367,7 @@
         <v>439.11</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>43097</v>
       </c>
@@ -3379,7 +3387,7 @@
         <v>389.17</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>43097</v>
       </c>
@@ -3399,7 +3407,7 @@
         <v>417.86</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>43097</v>
       </c>
@@ -3419,7 +3427,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>43097</v>
       </c>
@@ -3439,7 +3447,7 @@
         <v>401.43</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>43109</v>
       </c>
@@ -3459,7 +3467,7 @@
         <v>487.27</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>43109</v>
       </c>
@@ -3479,7 +3487,7 @@
         <v>402.59</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>43109</v>
       </c>
@@ -3499,7 +3507,7 @@
         <v>424.96</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>43109</v>
       </c>
@@ -3519,7 +3527,7 @@
         <v>392.75</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>43109</v>
       </c>
@@ -3539,7 +3547,7 @@
         <v>381.64</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>43109</v>
       </c>
@@ -3559,7 +3567,7 @@
         <v>383.73</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>43109</v>
       </c>
@@ -3579,7 +3587,7 @@
         <v>394.88</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>43109</v>
       </c>
@@ -3599,7 +3607,7 @@
         <v>439.68</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>43109</v>
       </c>
@@ -3619,7 +3627,7 @@
         <v>458.55</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>43109</v>
       </c>
@@ -3639,7 +3647,7 @@
         <v>468.52</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>43111</v>
       </c>
@@ -3659,7 +3667,7 @@
         <v>399.5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>43111</v>
       </c>
@@ -3679,7 +3687,7 @@
         <v>489.82</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>43111</v>
       </c>
@@ -3699,7 +3707,7 @@
         <v>433.91</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>43111</v>
       </c>
@@ -3719,7 +3727,7 @@
         <v>422.51</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>43111</v>
       </c>
@@ -3739,7 +3747,7 @@
         <v>407.51</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>43111</v>
       </c>
@@ -3759,7 +3767,7 @@
         <v>471.45</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>43111</v>
       </c>
@@ -3779,7 +3787,7 @@
         <v>470.03</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>43111</v>
       </c>
@@ -3799,7 +3807,7 @@
         <v>494.4</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>43111</v>
       </c>
@@ -3819,7 +3827,7 @@
         <v>566.41999999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>43111</v>
       </c>
@@ -3839,7 +3847,7 @@
         <v>536.24</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>43126</v>
       </c>
@@ -3859,7 +3867,7 @@
         <v>472.92</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>43126</v>
       </c>
@@ -3879,7 +3887,7 @@
         <v>451.28</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>43126</v>
       </c>
@@ -3899,7 +3907,7 @@
         <v>435.32</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>43126</v>
       </c>
@@ -3919,7 +3927,7 @@
         <v>428.21</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>43126</v>
       </c>
@@ -3939,7 +3947,7 @@
         <v>418.37</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>43126</v>
       </c>
@@ -3959,7 +3967,7 @@
         <v>441.66</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>43126</v>
       </c>
@@ -3979,7 +3987,7 @@
         <v>471.95</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>43126</v>
       </c>
@@ -3999,7 +4007,7 @@
         <v>505.8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>43126</v>
       </c>
@@ -4019,7 +4027,7 @@
         <v>501.91</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>43126</v>
       </c>
@@ -4039,7 +4047,7 @@
         <v>580.41</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>43144</v>
       </c>
@@ -4059,7 +4067,7 @@
         <v>477.5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>43144</v>
       </c>
@@ -4079,7 +4087,7 @@
         <v>458.97</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>43144</v>
       </c>
@@ -4099,7 +4107,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>43144</v>
       </c>
@@ -4119,7 +4127,7 @@
         <v>416.19</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>43144</v>
       </c>
@@ -4139,7 +4147,7 @@
         <v>449.05</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>43144</v>
       </c>
@@ -4159,7 +4167,7 @@
         <v>539.71</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>43144</v>
       </c>
@@ -4179,7 +4187,7 @@
         <v>495.63</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>43144</v>
       </c>
@@ -4199,7 +4207,7 @@
         <v>463.7</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>43144</v>
       </c>
@@ -4219,7 +4227,7 @@
         <v>472.77</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>43144</v>
       </c>
@@ -4239,7 +4247,7 @@
         <v>544.75</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>43103</v>
       </c>
@@ -4259,7 +4267,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>43103</v>
       </c>
@@ -4279,7 +4287,7 @@
         <v>435.45</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>43103</v>
       </c>
@@ -4299,7 +4307,7 @@
         <v>392.69</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>43103</v>
       </c>
@@ -4319,7 +4327,7 @@
         <v>416.12</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>43103</v>
       </c>
@@ -4339,7 +4347,7 @@
         <v>451.54</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>43103</v>
       </c>
@@ -4359,7 +4367,7 @@
         <v>447.92</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>43103</v>
       </c>
@@ -4379,7 +4387,7 @@
         <v>451.65</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>43103</v>
       </c>
@@ -4399,7 +4407,7 @@
         <v>435.29</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>43103</v>
       </c>
@@ -4419,7 +4427,7 @@
         <v>480.36</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>43103</v>
       </c>
@@ -4439,27 +4447,15 @@
         <v>523.13</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="3">
-        <v>43131</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>29</v>
+    <row r="128" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B128" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C128" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E128" s="3">
-        <v>78</v>
-      </c>
-      <c r="F128" s="3">
-        <v>482.96</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>43131</v>
       </c>
@@ -4467,19 +4463,19 @@
         <v>29</v>
       </c>
       <c r="C129" s="3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E129" s="3">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F129" s="3">
-        <v>475.67</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>482.96</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>43131</v>
       </c>
@@ -4487,19 +4483,19 @@
         <v>29</v>
       </c>
       <c r="C130" s="3">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E130" s="3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F130" s="3">
-        <v>458.58</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>475.67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>43131</v>
       </c>
@@ -4507,19 +4503,19 @@
         <v>29</v>
       </c>
       <c r="C131" s="3">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E131" s="3">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="F131" s="3">
-        <v>402.82</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>458.58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>43131</v>
       </c>
@@ -4527,19 +4523,19 @@
         <v>29</v>
       </c>
       <c r="C132" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E132" s="3">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="F132" s="3">
-        <v>438.57</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>402.82</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>43131</v>
       </c>
@@ -4547,19 +4543,19 @@
         <v>29</v>
       </c>
       <c r="C133" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E133" s="3">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="F133" s="3">
-        <v>460.45</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>438.57</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>43131</v>
       </c>
@@ -4567,27 +4563,27 @@
         <v>29</v>
       </c>
       <c r="C134" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E134" s="3">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="F134" s="3">
-        <v>490.49</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>460.45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>43131</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C135" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>40</v>
@@ -4596,10 +4592,10 @@
         <v>147</v>
       </c>
       <c r="F135" s="3">
-        <v>510.78</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>490.49</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>43131</v>
       </c>
@@ -4607,19 +4603,19 @@
         <v>29</v>
       </c>
       <c r="C136" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E136" s="3">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F136" s="3">
-        <v>534.21</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>510.78</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>43131</v>
       </c>
@@ -4627,39 +4623,39 @@
         <v>29</v>
       </c>
       <c r="C137" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E137" s="3">
+        <v>155</v>
+      </c>
+      <c r="F137" s="3">
+        <v>534.21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>43131</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C138" s="3">
         <v>2020</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E137" s="3">
+      <c r="D138" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E138" s="3">
         <v>148</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F138" s="3">
         <v>532.20000000000005</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="3">
-        <v>43135</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C138" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E138" s="3">
-        <v>6</v>
-      </c>
-      <c r="F138" s="3">
-        <v>412.5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>43135</v>
       </c>
@@ -4667,19 +4663,19 @@
         <v>23</v>
       </c>
       <c r="C139" s="3">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E139" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F139" s="3">
-        <v>331.5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>412.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>43135</v>
       </c>
@@ -4687,19 +4683,19 @@
         <v>23</v>
       </c>
       <c r="C140" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E140" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F140" s="3">
-        <v>330.71</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>331.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>43135</v>
       </c>
@@ -4707,19 +4703,19 @@
         <v>23</v>
       </c>
       <c r="C141" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E141" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F141" s="3">
-        <v>334.44</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>330.71</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>43135</v>
       </c>
@@ -4727,19 +4723,19 @@
         <v>23</v>
       </c>
       <c r="C142" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E142" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F142" s="3">
-        <v>446.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>334.44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>43135</v>
       </c>
@@ -4747,19 +4743,19 @@
         <v>23</v>
       </c>
       <c r="C143" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E143" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F143" s="3">
-        <v>470.91</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>446.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>43135</v>
       </c>
@@ -4767,39 +4763,39 @@
         <v>23</v>
       </c>
       <c r="C144" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E144" s="3">
+        <v>11</v>
+      </c>
+      <c r="F144" s="3">
+        <v>470.91</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>43135</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" s="3">
         <v>2020</v>
       </c>
-      <c r="D144" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E144" s="3">
+      <c r="D145" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E145" s="3">
         <v>8</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F145" s="3">
         <v>498.13</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="3">
-        <v>43905</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E145" s="3">
-        <v>448</v>
-      </c>
-      <c r="F145" s="3">
-        <v>487.31</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>43905</v>
       </c>
@@ -4807,19 +4803,19 @@
         <v>8</v>
       </c>
       <c r="C146" s="3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E146" s="3">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="F146" s="3">
-        <v>472.3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>487.31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>43905</v>
       </c>
@@ -4827,19 +4823,19 @@
         <v>8</v>
       </c>
       <c r="C147" s="3">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E147" s="3">
-        <v>543</v>
+        <v>470</v>
       </c>
       <c r="F147" s="3">
-        <v>449.41</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>472.3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>43905</v>
       </c>
@@ -4847,19 +4843,19 @@
         <v>8</v>
       </c>
       <c r="C148" s="3">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E148" s="3">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="F148" s="3">
-        <v>438.32</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>449.41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>43905</v>
       </c>
@@ -4867,19 +4863,19 @@
         <v>8</v>
       </c>
       <c r="C149" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E149" s="3">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="F149" s="3">
-        <v>444.42</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>438.32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>43905</v>
       </c>
@@ -4887,19 +4883,19 @@
         <v>8</v>
       </c>
       <c r="C150" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E150" s="3">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="F150" s="3">
-        <v>459.83</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>444.42</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>43905</v>
       </c>
@@ -4907,19 +4903,19 @@
         <v>8</v>
       </c>
       <c r="C151" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E151" s="3">
-        <v>636</v>
+        <v>602</v>
       </c>
       <c r="F151" s="3">
-        <v>468.66</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>459.83</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>43905</v>
       </c>
@@ -4927,19 +4923,19 @@
         <v>8</v>
       </c>
       <c r="C152" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E152" s="3">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="F152" s="3">
-        <v>506.81</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>468.66</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>43905</v>
       </c>
@@ -4947,19 +4943,19 @@
         <v>8</v>
       </c>
       <c r="C153" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E153" s="3">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="F153" s="3">
-        <v>521.46</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>506.81</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>43905</v>
       </c>
@@ -4967,39 +4963,39 @@
         <v>8</v>
       </c>
       <c r="C154" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E154" s="3">
+        <v>662</v>
+      </c>
+      <c r="F154" s="3">
+        <v>521.46</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>43905</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="3">
         <v>2020</v>
       </c>
-      <c r="D154" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E154" s="3">
+      <c r="D155" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E155" s="3">
         <v>637</v>
       </c>
-      <c r="F154" s="3">
+      <c r="F155" s="3">
         <v>516.04999999999995</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="3">
-        <v>43148</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E155" s="3">
-        <v>3789</v>
-      </c>
-      <c r="F155" s="3">
-        <v>495.02</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>43148</v>
       </c>
@@ -5007,19 +5003,19 @@
         <v>11</v>
       </c>
       <c r="C156" s="3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E156" s="3">
-        <v>3992</v>
+        <v>3789</v>
       </c>
       <c r="F156" s="3">
-        <v>469.6</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>495.02</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>43148</v>
       </c>
@@ -5027,19 +5023,19 @@
         <v>11</v>
       </c>
       <c r="C157" s="3">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E157" s="3">
-        <v>4164</v>
+        <v>3992</v>
       </c>
       <c r="F157" s="3">
-        <v>436.73</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>469.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>43148</v>
       </c>
@@ -5047,19 +5043,19 @@
         <v>11</v>
       </c>
       <c r="C158" s="3">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E158" s="3">
-        <v>4072</v>
+        <v>4164</v>
       </c>
       <c r="F158" s="3">
-        <v>429.77</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>436.73</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>43148</v>
       </c>
@@ -5067,19 +5063,19 @@
         <v>11</v>
       </c>
       <c r="C159" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E159" s="3">
-        <v>4010</v>
+        <v>4072</v>
       </c>
       <c r="F159" s="3">
-        <v>431.53</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>429.77</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>43148</v>
       </c>
@@ -5087,19 +5083,19 @@
         <v>11</v>
       </c>
       <c r="C160" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E160" s="3">
-        <v>3956</v>
+        <v>4010</v>
       </c>
       <c r="F160" s="3">
-        <v>447.67</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>431.53</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>43148</v>
       </c>
@@ -5107,19 +5103,19 @@
         <v>11</v>
       </c>
       <c r="C161" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D161" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E161" s="3">
-        <v>4241</v>
+        <v>3956</v>
       </c>
       <c r="F161" s="3">
-        <v>476.75</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>447.67</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>43148</v>
       </c>
@@ -5127,19 +5123,19 @@
         <v>11</v>
       </c>
       <c r="C162" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E162" s="3">
-        <v>4321</v>
+        <v>4241</v>
       </c>
       <c r="F162" s="3">
-        <v>513.78</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>476.75</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>43148</v>
       </c>
@@ -5147,19 +5143,19 @@
         <v>11</v>
       </c>
       <c r="C163" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E163" s="3">
-        <v>4026</v>
+        <v>4321</v>
       </c>
       <c r="F163" s="3">
-        <v>533.04999999999995</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>513.78</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>43148</v>
       </c>
@@ -5167,39 +5163,39 @@
         <v>11</v>
       </c>
       <c r="C164" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E164" s="3">
+        <v>4026</v>
+      </c>
+      <c r="F164" s="3">
+        <v>533.04999999999995</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>43148</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="3">
         <v>2020</v>
       </c>
-      <c r="D164" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E164" s="3">
+      <c r="D165" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E165" s="3">
         <v>3226</v>
       </c>
-      <c r="F164" s="3">
+      <c r="F165" s="3">
         <v>556.59</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A165" s="3">
-        <v>43153</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C165" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E165" s="3">
-        <v>330</v>
-      </c>
-      <c r="F165" s="3">
-        <v>483.82</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>43153</v>
       </c>
@@ -5207,19 +5203,19 @@
         <v>26</v>
       </c>
       <c r="C166" s="3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E166" s="3">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="F166" s="3">
-        <v>441.44</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>483.82</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>43153</v>
       </c>
@@ -5227,19 +5223,19 @@
         <v>26</v>
       </c>
       <c r="C167" s="3">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E167" s="3">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="F167" s="3">
-        <v>416.31</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>441.44</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>43153</v>
       </c>
@@ -5247,19 +5243,19 @@
         <v>26</v>
       </c>
       <c r="C168" s="3">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E168" s="3">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="F168" s="3">
-        <v>419.85</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>416.31</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>43153</v>
       </c>
@@ -5267,19 +5263,19 @@
         <v>26</v>
       </c>
       <c r="C169" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E169" s="3">
-        <v>506</v>
+        <v>402</v>
       </c>
       <c r="F169" s="3">
-        <v>429.09</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>419.85</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>43153</v>
       </c>
@@ -5287,19 +5283,19 @@
         <v>26</v>
       </c>
       <c r="C170" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E170" s="3">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="F170" s="3">
-        <v>430.84</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>429.09</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>43153</v>
       </c>
@@ -5307,19 +5303,19 @@
         <v>26</v>
       </c>
       <c r="C171" s="3">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E171" s="3">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="F171" s="3">
-        <v>466.47</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>430.84</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>43153</v>
       </c>
@@ -5327,19 +5323,19 @@
         <v>26</v>
       </c>
       <c r="C172" s="3">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E172" s="3">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="F172" s="3">
-        <v>487.6</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>466.47</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>43153</v>
       </c>
@@ -5347,19 +5343,19 @@
         <v>26</v>
       </c>
       <c r="C173" s="3">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E173" s="3">
-        <v>561</v>
+        <v>488</v>
       </c>
       <c r="F173" s="3">
-        <v>508.27</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>487.6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>43153</v>
       </c>
@@ -5367,59 +5363,48 @@
         <v>26</v>
       </c>
       <c r="C174" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E174" s="3">
+        <v>561</v>
+      </c>
+      <c r="F174" s="3">
+        <v>508.27</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>43153</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C175" s="3">
         <v>2020</v>
       </c>
-      <c r="D174" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E174" s="3">
+      <c r="D175" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E175" s="3">
         <v>411</v>
       </c>
-      <c r="F174" s="3">
+      <c r="F175" s="3">
         <v>533.20000000000005</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A175" s="3">
-        <v>43171</v>
-      </c>
-      <c r="B175" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C175" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E175" s="3">
-        <v>329</v>
-      </c>
-      <c r="F175" s="3">
-        <v>486.3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A176" s="3">
-        <v>43171</v>
-      </c>
-      <c r="B176" s="12" t="s">
-        <v>9</v>
+    <row r="176" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="B176" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C176" s="3">
-        <v>2012</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E176" s="3">
-        <v>403</v>
-      </c>
-      <c r="F176" s="3">
-        <v>456.47</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>2020</v>
+      </c>
+      <c r="E176" s="16"/>
+    </row>
+    <row r="177" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>43171</v>
       </c>
@@ -5427,19 +5412,19 @@
         <v>9</v>
       </c>
       <c r="C177" s="3">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E177" s="3">
-        <v>365</v>
+        <v>329</v>
       </c>
       <c r="F177" s="3">
-        <v>417.59</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>486.3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>43171</v>
       </c>
@@ -5447,19 +5432,19 @@
         <v>9</v>
       </c>
       <c r="C178" s="3">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E178" s="3">
-        <v>328</v>
+        <v>403</v>
       </c>
       <c r="F178" s="3">
-        <v>422.58</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>456.47</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>43171</v>
       </c>
@@ -5467,19 +5452,19 @@
         <v>9</v>
       </c>
       <c r="C179" s="3">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E179" s="3">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="F179" s="3">
-        <v>415.64</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>417.59</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>43171</v>
       </c>
@@ -5487,19 +5472,19 @@
         <v>9</v>
       </c>
       <c r="C180" s="3">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E180" s="3">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F180" s="3">
-        <v>422.55</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>422.58</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>43171</v>
       </c>
@@ -5507,19 +5492,19 @@
         <v>9</v>
       </c>
       <c r="C181" s="3">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E181" s="3">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="F181" s="3">
-        <v>448.31</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>415.64</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>43171</v>
       </c>
@@ -5527,19 +5512,19 @@
         <v>9</v>
       </c>
       <c r="C182" s="3">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D182" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E182" s="3">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="F182" s="3">
-        <v>476.81</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>422.55</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>43171</v>
       </c>
@@ -5547,19 +5532,19 @@
         <v>9</v>
       </c>
       <c r="C183" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E183" s="3">
-        <v>369</v>
+        <v>347</v>
       </c>
       <c r="F183" s="3">
-        <v>483.78</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>448.31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>43171</v>
       </c>
@@ -5567,59 +5552,59 @@
         <v>9</v>
       </c>
       <c r="C184" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E184" s="3">
+        <v>361</v>
+      </c>
+      <c r="F184" s="3">
+        <v>476.81</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>43171</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C185" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E185" s="3">
+        <v>369</v>
+      </c>
+      <c r="F185" s="3">
+        <v>483.78</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>43171</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C186" s="3">
         <v>2020</v>
       </c>
-      <c r="D184" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E184" s="3">
+      <c r="D186" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E186" s="3">
         <v>367</v>
       </c>
-      <c r="F184" s="3">
+      <c r="F186" s="3">
         <v>483.02</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A185" s="3">
-        <v>43166</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C185" s="3">
-        <v>2011</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E185" s="3">
-        <v>40</v>
-      </c>
-      <c r="F185" s="3">
-        <v>451.38</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A186" s="3">
-        <v>43166</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C186" s="3">
-        <v>2012</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E186" s="3">
-        <v>68</v>
-      </c>
-      <c r="F186" s="3">
-        <v>401.69</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>43166</v>
       </c>
@@ -5627,19 +5612,19 @@
         <v>15</v>
       </c>
       <c r="C187" s="3">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E187" s="3">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F187" s="3">
-        <v>370.19</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>451.38</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>43166</v>
       </c>
@@ -5647,19 +5632,19 @@
         <v>15</v>
       </c>
       <c r="C188" s="3">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E188" s="3">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="F188" s="3">
-        <v>386.3</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>401.69</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>43166</v>
       </c>
@@ -5667,19 +5652,19 @@
         <v>15</v>
       </c>
       <c r="C189" s="3">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E189" s="3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F189" s="3">
-        <v>397.68</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>370.19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>43166</v>
       </c>
@@ -5687,19 +5672,19 @@
         <v>15</v>
       </c>
       <c r="C190" s="3">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E190" s="3">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F190" s="3">
-        <v>370.14</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>386.3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>43166</v>
       </c>
@@ -5707,19 +5692,19 @@
         <v>15</v>
       </c>
       <c r="C191" s="3">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E191" s="3">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F191" s="3">
-        <v>384.43</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>397.68</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>43166</v>
       </c>
@@ -5727,19 +5712,19 @@
         <v>15</v>
       </c>
       <c r="C192" s="3">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E192" s="3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F192" s="3">
-        <v>439.96</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>370.14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>43166</v>
       </c>
@@ -5747,19 +5732,19 @@
         <v>15</v>
       </c>
       <c r="C193" s="3">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E193" s="3">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F193" s="3">
-        <v>449.78</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+        <v>384.43</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>43166</v>
       </c>
@@ -5767,15 +5752,55 @@
         <v>15</v>
       </c>
       <c r="C194" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E194" s="3">
+        <v>40</v>
+      </c>
+      <c r="F194" s="3">
+        <v>439.96</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>43166</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E195" s="3">
+        <v>45</v>
+      </c>
+      <c r="F195" s="3">
+        <v>449.78</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>43166</v>
+      </c>
+      <c r="B196" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C196" s="3">
         <v>2020</v>
       </c>
-      <c r="D194" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E194" s="3">
+      <c r="D196" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E196" s="3">
         <v>36</v>
       </c>
-      <c r="F194" s="3">
+      <c r="F196" s="3">
         <v>428.26</v>
       </c>
     </row>
@@ -5784,6 +5809,7 @@
     <sortCondition ref="B2:B194"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5798,12 +5824,12 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -5841,7 +5867,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2020</v>
       </c>
@@ -5879,7 +5905,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2020</v>
       </c>
@@ -5917,7 +5943,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2020</v>
       </c>
@@ -5955,7 +5981,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2020</v>
       </c>
@@ -5993,7 +6019,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2020</v>
       </c>
@@ -6031,7 +6057,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2020</v>
       </c>
@@ -6069,7 +6095,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2020</v>
       </c>
@@ -6107,7 +6133,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2020</v>
       </c>
@@ -6145,7 +6171,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2020</v>
       </c>
@@ -6183,7 +6209,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2020</v>
       </c>
@@ -6221,7 +6247,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2020</v>
       </c>
@@ -6259,7 +6285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2020</v>
       </c>
@@ -6297,7 +6323,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2020</v>
       </c>
@@ -6335,7 +6361,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2020</v>
       </c>
@@ -6373,7 +6399,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2020</v>
       </c>
@@ -6411,7 +6437,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2020</v>
       </c>
@@ -6449,7 +6475,7 @@
         <v>24935</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>2020</v>
       </c>
@@ -6487,7 +6513,7 @@
         <v>3206</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>2020</v>
       </c>
@@ -6525,7 +6551,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>2020</v>
       </c>
@@ -6563,7 +6589,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>2020</v>
       </c>
@@ -6601,7 +6627,7 @@
         <v>3098</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2020</v>
       </c>
@@ -6639,7 +6665,7 @@
         <v>3739</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>2020</v>
       </c>
@@ -6693,43 +6719,43 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="69.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="98.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="58.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="60.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="98.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="60.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="56" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="27" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="57" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="57.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="79.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="42.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="35.83203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="79.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="59" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>35</v>
       </c>
@@ -6827,7 +6853,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>25</v>
       </c>
@@ -6907,7 +6933,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -6993,7 +7019,7 @@
         <v>2.57</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -7069,7 +7095,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
@@ -7167,7 +7193,7 @@
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
@@ -7243,7 +7269,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -7321,7 +7347,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
@@ -7377,7 +7403,7 @@
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
     </row>
-    <row r="9" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -7449,7 +7475,7 @@
         <v>2.72</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
@@ -7527,7 +7553,7 @@
         <v>2.52</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -7603,7 +7629,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>27</v>
       </c>
@@ -7679,7 +7705,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
@@ -7735,7 +7761,7 @@
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
     </row>
-    <row r="14" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -7813,7 +7839,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
@@ -7909,7 +7935,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
@@ -7965,7 +7991,7 @@
       <c r="AE16" s="6"/>
       <c r="AF16" s="6"/>
     </row>
-    <row r="17" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>8</v>
       </c>
@@ -8063,7 +8089,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>18</v>
       </c>
@@ -8141,7 +8167,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>11</v>
       </c>
@@ -8239,7 +8265,7 @@
         <v>2.08</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>26</v>
       </c>
@@ -8337,7 +8363,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>22</v>
       </c>
@@ -8393,7 +8419,7 @@
       <c r="AE21" s="6"/>
       <c r="AF21" s="6"/>
     </row>
-    <row r="22" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>9</v>
       </c>
@@ -8491,72 +8517,72 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" s="3"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:32" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="3:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:4" ht="15" x14ac:dyDescent="0.25">
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
     </row>
